--- a/1_calculation_scripts/1_8_cf4/results/mie_results_vle_visc_fluid.xlsx
+++ b/1_calculation_scripts/1_8_cf4/results/mie_results_vle_visc_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8593255491517318</v>
       </c>
       <c r="D2">
-        <v>248.2238691252088</v>
+        <v>248.2238691252089</v>
       </c>
       <c r="E2">
-        <v>4572843.058548322</v>
+        <v>4572843.058548324</v>
       </c>
       <c r="F2">
-        <v>6500.291113996743</v>
+        <v>6500.291113996737</v>
       </c>
       <c r="G2">
         <v>4.399893439281819</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>76.46847815454461</v>
       </c>
@@ -585,10 +597,16 @@
         <v>0.06712986245066975</v>
       </c>
       <c r="M2">
+        <v>0.06712400274714618</v>
+      </c>
+      <c r="N2">
         <v>969.737345868566</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>5.85970352357491E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>78.20335602052414</v>
       </c>
@@ -626,10 +644,16 @@
         <v>0.06667708574223903</v>
       </c>
       <c r="M3">
+        <v>0.06667075023087886</v>
+      </c>
+      <c r="N3">
         <v>926.4850490130837</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>6.335511360173355E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>79.93823388650365</v>
       </c>
@@ -667,10 +691,16 @@
         <v>0.06629682773041336</v>
       </c>
       <c r="M4">
+        <v>0.06628994572636454</v>
+      </c>
+      <c r="N4">
         <v>894.6546608349969</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>6.88200404882123E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>81.67311175248318</v>
       </c>
@@ -708,10 +738,16 @@
         <v>0.06598439036594055</v>
       </c>
       <c r="M5">
+        <v>0.06597688312590512</v>
+      </c>
+      <c r="N5">
         <v>870.3239145191341</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>7.50724003542762E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>83.40798961846271</v>
       </c>
@@ -749,10 +785,16 @@
         <v>0.06573557359843141</v>
       </c>
       <c r="M6">
+        <v>0.0657273536473119</v>
+      </c>
+      <c r="N6">
         <v>851.1618887228672</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>8.219951119510232E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>85.14286748444223</v>
       </c>
@@ -790,10 +832,16 @@
         <v>0.06554637689130691</v>
       </c>
       <c r="M7">
+        <v>0.06553734728271438</v>
+      </c>
+      <c r="N7">
         <v>835.6856259398869</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>9.029608592533212E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>86.87774535042176</v>
       </c>
@@ -831,10 +879,16 @@
         <v>0.06541272817864356</v>
       </c>
       <c r="M8">
+        <v>0.06540278168108316</v>
+      </c>
+      <c r="N8">
         <v>822.8994832369411</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>9.946497560402274E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>88.61262321640129</v>
       </c>
@@ -854,7 +908,7 @@
         <v>11986.43846656244</v>
       </c>
       <c r="G9">
-        <v>46.86783156277807</v>
+        <v>46.86783156277809</v>
       </c>
       <c r="H9">
         <v>105.4136222733479</v>
@@ -872,21 +926,27 @@
         <v>0.06533026163515467</v>
       </c>
       <c r="M9">
-        <v>812.1049566928025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.06531927983603779</v>
+      </c>
+      <c r="N9">
+        <v>812.1049566928024</v>
+      </c>
+      <c r="O9">
+        <v>1.098179911687464E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>90.3475010823808</v>
+        <v>90.34750108238082</v>
       </c>
       <c r="B10">
-        <v>394.7923876104719</v>
+        <v>394.7923876104667</v>
       </c>
       <c r="C10">
-        <v>0.5258095377671093</v>
+        <v>0.5258095377671022</v>
       </c>
       <c r="D10">
-        <v>19000.6971973814</v>
+        <v>19000.69719738139</v>
       </c>
       <c r="E10">
         <v>12546.18074886668</v>
@@ -895,36 +955,42 @@
         <v>11795.37378525351</v>
       </c>
       <c r="G10">
-        <v>44.0371004451213</v>
+        <v>44.03710044512123</v>
       </c>
       <c r="H10">
-        <v>98.10476193118073</v>
+        <v>98.10476193118059</v>
       </c>
       <c r="I10">
-        <v>1.755203109777483E-09</v>
+        <v>1.755203109777486E-09</v>
       </c>
       <c r="J10">
-        <v>6.441696938380891E-10</v>
+        <v>6.441696938380892E-10</v>
       </c>
       <c r="K10">
-        <v>0.001240677355572425</v>
+        <v>0.001240677355572423</v>
       </c>
       <c r="L10">
         <v>0.06529416405513719</v>
       </c>
       <c r="M10">
-        <v>802.7937759140085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.0652820163753975</v>
+      </c>
+      <c r="N10">
+        <v>802.7937759140082</v>
+      </c>
+      <c r="O10">
+        <v>1.214767973969026E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>92.08237894836033</v>
+        <v>92.08237894836034</v>
       </c>
       <c r="B11">
-        <v>539.767070099837</v>
+        <v>539.7670700998383</v>
       </c>
       <c r="C11">
-        <v>0.7054538395980797</v>
+        <v>0.7054538395980813</v>
       </c>
       <c r="D11">
         <v>18846.17724525568</v>
@@ -936,77 +1002,89 @@
         <v>11616.63772464939</v>
       </c>
       <c r="G11">
-        <v>41.12273421242634</v>
+        <v>41.12273421242632</v>
       </c>
       <c r="H11">
-        <v>91.1671728056786</v>
+        <v>91.16717280567848</v>
       </c>
       <c r="I11">
         <v>1.785094922370956E-09</v>
       </c>
       <c r="J11">
-        <v>6.673947403516971E-10</v>
+        <v>6.673947403516983E-10</v>
       </c>
       <c r="K11">
-        <v>0.001202516574255406</v>
+        <v>0.001202516574255405</v>
       </c>
       <c r="L11">
-        <v>0.06529910408954083</v>
+        <v>0.0652991040895408</v>
       </c>
       <c r="M11">
-        <v>794.5847440941143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.06528564670259494</v>
+      </c>
+      <c r="N11">
+        <v>794.5847440941141</v>
+      </c>
+      <c r="O11">
+        <v>1.345738694586127E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>93.81725681433986</v>
+        <v>93.81725681433987</v>
       </c>
       <c r="B12">
-        <v>726.7373343202588</v>
+        <v>726.7373343202911</v>
       </c>
       <c r="C12">
-        <v>0.9324172673500434</v>
+        <v>0.9324172673500847</v>
       </c>
       <c r="D12">
-        <v>18698.55915587654</v>
+        <v>18698.55915587653</v>
       </c>
       <c r="E12">
-        <v>12228.91237085876</v>
+        <v>12228.91237085877</v>
       </c>
       <c r="F12">
         <v>11449.53910042009</v>
       </c>
       <c r="G12">
-        <v>38.21726865299983</v>
+        <v>38.21726865299976</v>
       </c>
       <c r="H12">
-        <v>84.64399831479194</v>
+        <v>84.64399831479183</v>
       </c>
       <c r="I12">
-        <v>1.815412572940033E-09</v>
+        <v>1.815412572940036E-09</v>
       </c>
       <c r="J12">
-        <v>6.920169077915921E-10</v>
+        <v>6.920169077915935E-10</v>
       </c>
       <c r="K12">
-        <v>0.001158732248554158</v>
+        <v>0.001158732248554157</v>
       </c>
       <c r="L12">
-        <v>0.06533924956854498</v>
+        <v>0.06533924956854496</v>
       </c>
       <c r="M12">
-        <v>787.1849487951274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.0653243242186647</v>
+      </c>
+      <c r="N12">
+        <v>787.1849487951271</v>
+      </c>
+      <c r="O12">
+        <v>1.49253498802682E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>95.55213468031938</v>
+        <v>95.5521346803194</v>
       </c>
       <c r="B13">
-        <v>964.7009098167742</v>
+        <v>964.7009098167753</v>
       </c>
       <c r="C13">
-        <v>1.215515648911116</v>
+        <v>1.215515648911117</v>
       </c>
       <c r="D13">
         <v>18557.26146681137</v>
@@ -1018,10 +1096,10 @@
         <v>11293.32867366125</v>
       </c>
       <c r="G13">
-        <v>35.38789803336053</v>
+        <v>35.38789803336051</v>
       </c>
       <c r="H13">
-        <v>78.55895332364223</v>
+        <v>78.55895332364219</v>
       </c>
       <c r="I13">
         <v>1.84626172136301E-09</v>
@@ -1036,18 +1114,24 @@
         <v>0.06540836742777248</v>
       </c>
       <c r="M13">
-        <v>780.3652078563392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.06539180014466264</v>
+      </c>
+      <c r="N13">
+        <v>780.3652078563391</v>
+      </c>
+      <c r="O13">
+        <v>1.656728310983245E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>97.28701254629891</v>
+        <v>97.28701254629893</v>
       </c>
       <c r="B14">
-        <v>1263.903745094209</v>
+        <v>1263.903745094218</v>
       </c>
       <c r="C14">
-        <v>1.564508868991277</v>
+        <v>1.564508868991288</v>
       </c>
       <c r="D14">
         <v>18421.75322396888</v>
@@ -1056,39 +1140,45 @@
         <v>11955.02006564373</v>
       </c>
       <c r="F14">
-        <v>11147.2289240902</v>
+        <v>11147.22892409019</v>
       </c>
       <c r="G14">
-        <v>32.68158252801275</v>
+        <v>32.68158252801281</v>
       </c>
       <c r="H14">
-        <v>72.92068273890645</v>
+        <v>72.92068273890649</v>
       </c>
       <c r="I14">
-        <v>1.877745535416265E-09</v>
+        <v>1.877745535416263E-09</v>
       </c>
       <c r="J14">
         <v>7.459216727807126E-10</v>
       </c>
       <c r="K14">
-        <v>0.001057539889097222</v>
+        <v>0.001057539889097223</v>
       </c>
       <c r="L14">
-        <v>0.06549999054372556</v>
+        <v>0.06549999054372557</v>
       </c>
       <c r="M14">
+        <v>0.06548159025225644</v>
+      </c>
+      <c r="N14">
         <v>773.9441404831705</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>1.840029146913245E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>99.02189041227844</v>
+        <v>99.02189041227845</v>
       </c>
       <c r="B15">
-        <v>1635.910174690414</v>
+        <v>1635.910174690421</v>
       </c>
       <c r="C15">
-        <v>1.990113608643938</v>
+        <v>1.990113608643947</v>
       </c>
       <c r="D15">
         <v>18291.54892047181</v>
@@ -1100,77 +1190,89 @@
         <v>11010.45688224358</v>
       </c>
       <c r="G15">
-        <v>30.12935547510132</v>
+        <v>30.12935547510116</v>
       </c>
       <c r="H15">
-        <v>67.72641900921742</v>
+        <v>67.72641900921724</v>
       </c>
       <c r="I15">
-        <v>1.909964934437514E-09</v>
+        <v>1.909964934437516E-09</v>
       </c>
       <c r="J15">
-        <v>7.754518083264417E-10</v>
+        <v>7.754518083264426E-10</v>
       </c>
       <c r="K15">
-        <v>0.001002244800148085</v>
+        <v>0.001002244800148083</v>
       </c>
       <c r="L15">
-        <v>0.06560762813021005</v>
+        <v>0.06560762813021001</v>
       </c>
       <c r="M15">
-        <v>767.7775977636217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.06558718515685198</v>
+      </c>
+      <c r="N15">
+        <v>767.7775977636215</v>
+      </c>
+      <c r="O15">
+        <v>2.044297335802431E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>100.756768278258</v>
       </c>
       <c r="B16">
-        <v>2093.666930651867</v>
+        <v>2093.6669306519</v>
       </c>
       <c r="C16">
-        <v>2.504009953242138</v>
+        <v>2.504009953242177</v>
       </c>
       <c r="D16">
         <v>18166.20399299484</v>
       </c>
       <c r="E16">
-        <v>11718.25158623793</v>
+        <v>11718.25158623792</v>
       </c>
       <c r="F16">
-        <v>10882.24119451533</v>
+        <v>10882.24119451532</v>
       </c>
       <c r="G16">
-        <v>27.74990023621912</v>
+        <v>27.74990023621909</v>
       </c>
       <c r="H16">
-        <v>62.96499481108072</v>
+        <v>62.96499481108069</v>
       </c>
       <c r="I16">
-        <v>1.943018919345413E-09</v>
+        <v>1.943018919345412E-09</v>
       </c>
       <c r="J16">
         <v>8.068735317405568E-10</v>
       </c>
       <c r="K16">
-        <v>0.0009454423771086439</v>
+        <v>0.0009454423771086444</v>
       </c>
       <c r="L16">
-        <v>0.06572499246834942</v>
+        <v>0.06572499246834945</v>
       </c>
       <c r="M16">
-        <v>761.7514635541628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.06570227694890546</v>
+      </c>
+      <c r="N16">
+        <v>761.751463554163</v>
+      </c>
+      <c r="O16">
+        <v>2.27155194439947E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>102.4916461442375</v>
       </c>
       <c r="B17">
-        <v>2651.560413594683</v>
+        <v>2651.560413594687</v>
       </c>
       <c r="C17">
-        <v>3.118842280559673</v>
+        <v>3.118842280559678</v>
       </c>
       <c r="D17">
         <v>18045.31080780345</v>
@@ -1179,80 +1281,92 @@
         <v>11611.8621174234</v>
       </c>
       <c r="F17">
-        <v>10761.83448040804</v>
+        <v>10761.83448040803</v>
       </c>
       <c r="G17">
-        <v>25.55248107782147</v>
+        <v>25.55248107782153</v>
       </c>
       <c r="H17">
-        <v>58.61928370983319</v>
+        <v>58.61928370983326</v>
       </c>
       <c r="I17">
-        <v>1.977004972583311E-09</v>
+        <v>1.97700497258331E-09</v>
       </c>
       <c r="J17">
-        <v>8.403220290122169E-10</v>
+        <v>8.403220290122178E-10</v>
       </c>
       <c r="K17">
-        <v>0.0008883913991340317</v>
+        <v>0.0008883913991340307</v>
       </c>
       <c r="L17">
         <v>0.06584621484407339</v>
       </c>
       <c r="M17">
-        <v>755.7765678046061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.06582097504078063</v>
+      </c>
+      <c r="N17">
+        <v>755.7765678046062</v>
+      </c>
+      <c r="O17">
+        <v>2.523980329275525E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>104.226524010217</v>
       </c>
       <c r="B18">
-        <v>3325.466737247011</v>
+        <v>3325.466737246961</v>
       </c>
       <c r="C18">
-        <v>3.84821490435947</v>
+        <v>3.848214904359411</v>
       </c>
       <c r="D18">
         <v>17928.49507784456</v>
       </c>
       <c r="E18">
-        <v>11512.49469446287</v>
+        <v>11512.49469446286</v>
       </c>
       <c r="F18">
-        <v>10648.52190869216</v>
+        <v>10648.52190869215</v>
       </c>
       <c r="G18">
-        <v>23.53931605041186</v>
+        <v>23.53931605041185</v>
       </c>
       <c r="H18">
-        <v>54.66814675529013</v>
+        <v>54.66814675529007</v>
       </c>
       <c r="I18">
         <v>2.012019513992528E-09</v>
       </c>
       <c r="J18">
-        <v>8.759360534070175E-10</v>
+        <v>8.759360534070185E-10</v>
       </c>
       <c r="K18">
-        <v>0.000832271289801158</v>
+        <v>0.0008322712898011572</v>
       </c>
       <c r="L18">
         <v>0.0659660270395412</v>
       </c>
       <c r="M18">
-        <v>749.7848969102151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.06593798757947372</v>
+      </c>
+      <c r="N18">
+        <v>749.7848969102148</v>
+      </c>
+      <c r="O18">
+        <v>2.803946006748136E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>105.9614018761965</v>
       </c>
       <c r="B19">
-        <v>4132.794167942508</v>
+        <v>4132.794167942497</v>
       </c>
       <c r="C19">
-        <v>4.706683006160132</v>
+        <v>4.706683006160119</v>
       </c>
       <c r="D19">
         <v>17815.41265995185</v>
@@ -1261,39 +1375,45 @@
         <v>11419.46417248845</v>
       </c>
       <c r="F19">
-        <v>10541.62678405496</v>
+        <v>10541.62678405495</v>
       </c>
       <c r="G19">
-        <v>21.70747661050981</v>
+        <v>21.7074766105098</v>
       </c>
       <c r="H19">
-        <v>51.08796112751172</v>
+        <v>51.08796112751169</v>
       </c>
       <c r="I19">
-        <v>2.048158401074153E-09</v>
+        <v>2.048158401074155E-09</v>
       </c>
       <c r="J19">
         <v>9.138571476263882E-10</v>
       </c>
       <c r="K19">
-        <v>0.0007780998041493894</v>
+        <v>0.0007780998041493891</v>
       </c>
       <c r="L19">
-        <v>0.06607989055648308</v>
+        <v>0.0660798905564831</v>
       </c>
       <c r="M19">
-        <v>743.726570431618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.06604875060734984</v>
+      </c>
+      <c r="N19">
+        <v>743.7265704316177</v>
+      </c>
+      <c r="O19">
+        <v>3.113994913325336E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>107.6962797421761</v>
       </c>
       <c r="B20">
-        <v>5092.51769428583</v>
+        <v>5092.517694285914</v>
       </c>
       <c r="C20">
-        <v>5.7097394370207</v>
+        <v>5.709739437020795</v>
       </c>
       <c r="D20">
         <v>17705.74668778628</v>
@@ -1305,200 +1425,230 @@
         <v>10440.5138077064</v>
       </c>
       <c r="G20">
-        <v>20.05039172477013</v>
+        <v>20.05039172477014</v>
       </c>
       <c r="H20">
-        <v>47.85380113578876</v>
+        <v>47.85380113578871</v>
       </c>
       <c r="I20">
-        <v>2.085517464466023E-09</v>
+        <v>2.085517464466026E-09</v>
       </c>
       <c r="J20">
-        <v>9.542287168708308E-10</v>
+        <v>9.54228716870831E-10</v>
       </c>
       <c r="K20">
-        <v>0.0007266756783766803</v>
+        <v>0.0007266756783766797</v>
       </c>
       <c r="L20">
         <v>0.06618406288616535</v>
       </c>
       <c r="M20">
-        <v>737.5672479433903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.06614949428994907</v>
+      </c>
+      <c r="N20">
+        <v>737.5672479433896</v>
+      </c>
+      <c r="O20">
+        <v>3.456859621628034E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>109.4311576081556</v>
       </c>
       <c r="B21">
-        <v>6225.205578689965</v>
+        <v>6225.205578689975</v>
       </c>
       <c r="C21">
-        <v>6.873798010440059</v>
+        <v>6.873798010440069</v>
       </c>
       <c r="D21">
-        <v>17599.20500173742</v>
+        <v>17599.20500173741</v>
       </c>
       <c r="E21">
-        <v>11249.87962420273</v>
+        <v>11249.87962420272</v>
       </c>
       <c r="F21">
         <v>10344.59055931493</v>
       </c>
       <c r="G21">
-        <v>18.55902543777902</v>
+        <v>18.55902543777894</v>
       </c>
       <c r="H21">
-        <v>44.94033414268247</v>
+        <v>44.94033414268234</v>
       </c>
       <c r="I21">
-        <v>2.12419307167741E-09</v>
+        <v>2.124193071677409E-09</v>
       </c>
       <c r="J21">
         <v>9.971949551535355E-10</v>
       </c>
       <c r="K21">
-        <v>0.000678553247045606</v>
+        <v>0.000678553247045605</v>
       </c>
       <c r="L21">
         <v>0.06627559765765552</v>
       </c>
       <c r="M21">
-        <v>731.2857681729741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.06623724304691836</v>
+      </c>
+      <c r="N21">
+        <v>731.2857681729745</v>
+      </c>
+      <c r="O21">
+        <v>3.835461073715333E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>111.1660354741351</v>
       </c>
       <c r="B22">
-        <v>7553.037857996681</v>
+        <v>7553.037857996706</v>
       </c>
       <c r="C22">
-        <v>8.216173935347545</v>
+        <v>8.216173935347573</v>
       </c>
       <c r="D22">
         <v>17495.51784182457</v>
       </c>
       <c r="E22">
-        <v>11172.16487664747</v>
+        <v>11172.16487664746</v>
       </c>
       <c r="F22">
         <v>10253.30764571533</v>
       </c>
       <c r="G22">
-        <v>17.22278766407259</v>
+        <v>17.22278766407257</v>
       </c>
       <c r="H22">
-        <v>42.32248564714001</v>
+        <v>42.32248564713999</v>
       </c>
       <c r="I22">
-        <v>2.164282714151831E-09</v>
+        <v>2.164282714151829E-09</v>
       </c>
       <c r="J22">
-        <v>1.042899633308848E-09</v>
+        <v>1.04289963330885E-09</v>
       </c>
       <c r="K22">
-        <v>0.0006340481195244403</v>
+        <v>0.0006340481195244401</v>
       </c>
       <c r="L22">
-        <v>0.06635228260413684</v>
+        <v>0.06635228260413686</v>
       </c>
       <c r="M22">
-        <v>724.8719219424222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.06630975353003435</v>
+      </c>
+      <c r="N22">
+        <v>724.8719219424227</v>
+      </c>
+      <c r="O22">
+        <v>4.252907410252155E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>112.9009133401146</v>
+        <v>112.9009133401147</v>
       </c>
       <c r="B23">
-        <v>9099.816871386891</v>
+        <v>9099.816871386902</v>
       </c>
       <c r="C23">
-        <v>9.75506205383468</v>
+        <v>9.755062053834688</v>
       </c>
       <c r="D23">
-        <v>17394.43577378783</v>
+        <v>17394.43577378782</v>
       </c>
       <c r="E23">
-        <v>11098.46496855352</v>
+        <v>11098.4649685535</v>
       </c>
       <c r="F23">
-        <v>10166.15787439079</v>
+        <v>10166.15787439077</v>
       </c>
       <c r="G23">
-        <v>16.03022905184198</v>
+        <v>16.03022905184203</v>
       </c>
       <c r="H23">
-        <v>39.97591960744315</v>
+        <v>39.97591960744318</v>
       </c>
       <c r="I23">
-        <v>2.205885614555469E-09</v>
+        <v>2.205885614555472E-09</v>
       </c>
       <c r="J23">
-        <v>1.09148476398568E-09</v>
+        <v>1.091484763985681E-09</v>
       </c>
       <c r="K23">
-        <v>0.0005932667584024594</v>
+        <v>0.0005932667584024582</v>
       </c>
       <c r="L23">
-        <v>0.06641252530142916</v>
+        <v>0.06641252530142913</v>
       </c>
       <c r="M23">
-        <v>718.3243291711746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.06636540040629518</v>
+      </c>
+      <c r="N23">
+        <v>718.3243291711739</v>
+      </c>
+      <c r="O23">
+        <v>4.712489513394233E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>114.6357912060942</v>
       </c>
       <c r="B24">
-        <v>10890.96999714325</v>
+        <v>10890.96999714329</v>
       </c>
       <c r="C24">
-        <v>11.50951355164576</v>
+        <v>11.50951355164581</v>
       </c>
       <c r="D24">
         <v>17295.72782215454</v>
       </c>
       <c r="E24">
-        <v>11028.30310751385</v>
+        <v>11028.30310751384</v>
       </c>
       <c r="F24">
         <v>10082.67473605162</v>
       </c>
       <c r="G24">
-        <v>14.96956258023887</v>
+        <v>14.96956258023896</v>
       </c>
       <c r="H24">
-        <v>37.87737255298384</v>
+        <v>37.87737255298394</v>
       </c>
       <c r="I24">
-        <v>2.249103352817265E-09</v>
+        <v>2.249103352817263E-09</v>
       </c>
       <c r="J24">
         <v>1.143089166220455E-09</v>
       </c>
       <c r="K24">
-        <v>0.0005561498495909927</v>
+        <v>0.0005561498495909925</v>
       </c>
       <c r="L24">
-        <v>0.06645520100100893</v>
+        <v>0.06645520100100891</v>
       </c>
       <c r="M24">
+        <v>0.06640302427154868</v>
+      </c>
+      <c r="N24">
         <v>711.6484333216132</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>5.217672946023616E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>116.3706690720737</v>
       </c>
       <c r="B25">
-        <v>12953.54487303875</v>
+        <v>12953.54487303874</v>
       </c>
       <c r="C25">
-        <v>13.49941180113377</v>
+        <v>13.49941180113376</v>
       </c>
       <c r="D25">
         <v>17199.17978719129</v>
@@ -1510,13 +1660,13 @@
         <v>10002.43041944067</v>
       </c>
       <c r="G25">
-        <v>14.02904728488773</v>
+        <v>14.02904728488768</v>
       </c>
       <c r="H25">
-        <v>36.00487332914446</v>
+        <v>36.00487332914444</v>
       </c>
       <c r="I25">
-        <v>2.294040510891203E-09</v>
+        <v>2.294040510891202E-09</v>
       </c>
       <c r="J25">
         <v>1.197846959560553E-09</v>
@@ -1528,18 +1678,24 @@
         <v>0.0664794792699375</v>
       </c>
       <c r="M25">
-        <v>704.8546484067988</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.06642175840932758</v>
+      </c>
+      <c r="N25">
+        <v>704.8546484067994</v>
+      </c>
+      <c r="O25">
+        <v>5.772086060991732E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>118.1055469380532</v>
       </c>
       <c r="B26">
-        <v>15316.19745637858</v>
+        <v>15316.19745637854</v>
       </c>
       <c r="C26">
-        <v>15.74544797762237</v>
+        <v>15.74544797762233</v>
       </c>
       <c r="D26">
         <v>17104.59272537442</v>
@@ -1569,24 +1725,30 @@
         <v>0.06648464653012671</v>
       </c>
       <c r="M26">
+        <v>0.06642085148842312</v>
+      </c>
+      <c r="N26">
         <v>697.956698638346</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="O26">
+        <v>6.379504170358711E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>119.8404248040328</v>
       </c>
       <c r="B27">
-        <v>18009.17334788941</v>
+        <v>18009.1733478892</v>
       </c>
       <c r="C27">
-        <v>18.26909706255098</v>
+        <v>18.26909706255077</v>
       </c>
       <c r="D27">
-        <v>17011.78157539248</v>
+        <v>17011.78157539247</v>
       </c>
       <c r="E27">
-        <v>10834.84051653942</v>
+        <v>10834.84051653943</v>
       </c>
       <c r="F27">
         <v>9850.126653466417</v>
@@ -1595,36 +1757,42 @@
         <v>12.46330128512903</v>
       </c>
       <c r="H27">
-        <v>32.85731651021528</v>
+        <v>32.8573165102153</v>
       </c>
       <c r="I27">
-        <v>2.38951043521197E-09</v>
+        <v>2.389510435211971E-09</v>
       </c>
       <c r="J27">
         <v>1.317326473509654E-09</v>
       </c>
       <c r="K27">
-        <v>0.0004646730800436481</v>
+        <v>0.0004646730800436476</v>
       </c>
       <c r="L27">
-        <v>0.0664699402255894</v>
+        <v>0.06646994022558937</v>
       </c>
       <c r="M27">
+        <v>0.06639950192755845</v>
+      </c>
+      <c r="N27">
         <v>690.9701840253309</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="O27">
+        <v>7.043829803092233E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>121.5753026700123</v>
       </c>
       <c r="B28">
-        <v>21064.28285825417</v>
+        <v>21064.28285825429</v>
       </c>
       <c r="C28">
-        <v>21.09259481235508</v>
+        <v>21.09259481235521</v>
       </c>
       <c r="D28">
-        <v>16920.57391377837</v>
+        <v>16920.57391377838</v>
       </c>
       <c r="E28">
         <v>10774.79667531194</v>
@@ -1633,36 +1801,42 @@
         <v>9777.383836912049</v>
       </c>
       <c r="G28">
-        <v>11.81688742646519</v>
+        <v>11.81688742646517</v>
       </c>
       <c r="H28">
-        <v>31.5456414572636</v>
+        <v>31.54564145726359</v>
       </c>
       <c r="I28">
-        <v>2.440273473421933E-09</v>
+        <v>2.44027347342193E-09</v>
       </c>
       <c r="J28">
-        <v>1.382279176370742E-09</v>
+        <v>1.38227917637074E-09</v>
       </c>
       <c r="K28">
-        <v>0.00043986582930354</v>
+        <v>0.0004398658293035404</v>
       </c>
       <c r="L28">
-        <v>0.06643440770819012</v>
+        <v>0.06643440770819013</v>
       </c>
       <c r="M28">
-        <v>683.9113917713682</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.06635671701584218</v>
+      </c>
+      <c r="N28">
+        <v>683.9113917713688</v>
+      </c>
+      <c r="O28">
+        <v>7.76906923479441E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>123.3101805359918</v>
       </c>
       <c r="B29">
-        <v>24514.87033727674</v>
+        <v>24514.87033727672</v>
       </c>
       <c r="C29">
-        <v>24.23891623286469</v>
+        <v>24.23891623286467</v>
       </c>
       <c r="D29">
         <v>16830.8088260974</v>
@@ -1671,31 +1845,37 @@
         <v>10716.43631196116</v>
       </c>
       <c r="F29">
-        <v>9706.508105088891</v>
+        <v>9706.508105088889</v>
       </c>
       <c r="G29">
         <v>11.24845617745374</v>
       </c>
       <c r="H29">
-        <v>30.38677007069724</v>
+        <v>30.38677007069725</v>
       </c>
       <c r="I29">
-        <v>2.493217931396681E-09</v>
+        <v>2.49321793139668E-09</v>
       </c>
       <c r="J29">
-        <v>1.450844396447807E-09</v>
+        <v>1.450844396447805E-09</v>
       </c>
       <c r="K29">
-        <v>0.0004174096265707248</v>
+        <v>0.0004174096265707255</v>
       </c>
       <c r="L29">
-        <v>0.06637679954843775</v>
+        <v>0.06637679954843777</v>
       </c>
       <c r="M29">
-        <v>676.7963575610333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.06629120649206725</v>
+      </c>
+      <c r="N29">
+        <v>676.7963575610335</v>
+      </c>
+      <c r="O29">
+        <v>8.559305637051576E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>125.0450584019713</v>
       </c>
@@ -1733,10 +1913,16 @@
         <v>0.0662955033096488</v>
       </c>
       <c r="M30">
+        <v>0.06620131661607444</v>
+      </c>
+      <c r="N30">
         <v>669.6401661061506</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="O30">
+        <v>9.418669357436048E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>126.7799362679508</v>
       </c>
@@ -1774,10 +1960,16 @@
         <v>0.06618852020564372</v>
       </c>
       <c r="M31">
+        <v>0.06608500714570929</v>
+      </c>
+      <c r="N31">
         <v>662.4564687083164</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="O31">
+        <v>0.0001035130599344288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>128.5148141339304</v>
       </c>
@@ -1815,10 +2007,16 @@
         <v>0.06605348371446049</v>
       </c>
       <c r="M32">
+        <v>0.06593987028392113</v>
+      </c>
+      <c r="N32">
         <v>655.2571879839713</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="O32">
+        <v>0.0001136134305393506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>130.2496919999099</v>
       </c>
@@ -1856,10 +2054,16 @@
         <v>0.06588771631080359</v>
       </c>
       <c r="M33">
+        <v>0.06576318774980242</v>
+      </c>
+      <c r="N33">
         <v>648.0523762751217</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="O33">
+        <v>0.0001245285610011802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>131.9845698658894</v>
       </c>
@@ -1897,10 +2101,16 @@
         <v>0.06568831818745845</v>
       </c>
       <c r="M34">
+        <v>0.06555201983429161</v>
+      </c>
+      <c r="N34">
         <v>640.8501940281881</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="O34">
+        <v>0.0001362983531668391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>133.7194477318689</v>
       </c>
@@ -1938,10 +2148,16 @@
         <v>0.06545228037966572</v>
       </c>
       <c r="M35">
+        <v>0.06530331884489168</v>
+      </c>
+      <c r="N35">
         <v>633.6569766828077</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="O35">
+        <v>0.0001489615347740313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>135.4543255978485</v>
       </c>
@@ -1979,10 +2195,16 @@
         <v>0.06517661430953579</v>
       </c>
       <c r="M36">
+        <v>0.06501405894717231</v>
+      </c>
+      <c r="N36">
         <v>626.477362449062</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36">
+        <v>0.0001625553623634855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>137.189203463828</v>
       </c>
@@ -2020,10 +2242,16 @@
         <v>0.06485849055581705</v>
       </c>
       <c r="M37">
+        <v>0.06468137519983672</v>
+      </c>
+      <c r="N37">
         <v>619.3144579538401</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="O37">
+        <v>0.0001771153559803313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>138.9240813298075</v>
       </c>
@@ -2061,10 +2289,16 @@
         <v>0.06449538151391222</v>
       </c>
       <c r="M38">
+        <v>0.06430270644088822</v>
+      </c>
+      <c r="N38">
         <v>612.1700234776677</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="O38">
+        <v>0.0001926750730240044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>140.658959195787</v>
       </c>
@@ -2102,18 +2336,24 @@
         <v>0.06408520505685415</v>
       </c>
       <c r="M39">
+        <v>0.06387593912973299</v>
+      </c>
+      <c r="N39">
         <v>605.0446639533236</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="O39">
+        <v>0.0002092659271211566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>142.3938370617666</v>
       </c>
       <c r="B40">
-        <v>99517.71300987049</v>
+        <v>99517.71300987052</v>
       </c>
       <c r="C40">
-        <v>87.42177132007268</v>
+        <v>87.42177132007269</v>
       </c>
       <c r="D40">
         <v>15901.42543082069</v>
@@ -2122,31 +2362,37 @@
         <v>10119.55949147063</v>
       </c>
       <c r="F40">
-        <v>8987.454870095477</v>
+        <v>8987.454870095475</v>
       </c>
       <c r="G40">
-        <v>8.12263012714887</v>
+        <v>8.122630127148872</v>
       </c>
       <c r="H40">
-        <v>24.40135063401818</v>
+        <v>24.40135063401817</v>
       </c>
       <c r="I40">
-        <v>3.263309749914559E-09</v>
+        <v>3.263309749914564E-09</v>
       </c>
       <c r="J40">
         <v>2.459168088631597E-09</v>
       </c>
       <c r="K40">
-        <v>0.0002653067281311324</v>
+        <v>0.0002653067281311322</v>
       </c>
       <c r="L40">
-        <v>0.0636264684370811</v>
+        <v>0.06362646843708107</v>
       </c>
       <c r="M40">
-        <v>597.9380158059222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.06339955138087851</v>
+      </c>
+      <c r="N40">
+        <v>597.9380158059219</v>
+      </c>
+      <c r="O40">
+        <v>0.0002269170562025639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>144.1287149277461</v>
       </c>
@@ -2154,89 +2400,101 @@
         <v>110813.2358311775</v>
       </c>
       <c r="C41">
-        <v>96.48570256474522</v>
+        <v>96.48570256474527</v>
       </c>
       <c r="D41">
         <v>15819.44262558914</v>
       </c>
       <c r="E41">
-        <v>10064.89902971859</v>
+        <v>10064.89902971858</v>
       </c>
       <c r="F41">
         <v>8923.4100576737</v>
       </c>
       <c r="G41">
-        <v>7.995598896463644</v>
+        <v>7.995598896463623</v>
       </c>
       <c r="H41">
-        <v>24.26347899262221</v>
+        <v>24.26347899262219</v>
       </c>
       <c r="I41">
-        <v>3.355407026477443E-09</v>
+        <v>3.355407026477444E-09</v>
       </c>
       <c r="J41">
-        <v>2.574168855781127E-09</v>
+        <v>2.574168855781131E-09</v>
       </c>
       <c r="K41">
-        <v>0.0002565966125428391</v>
+        <v>0.000256596612542839</v>
       </c>
       <c r="L41">
-        <v>0.0631184122814408</v>
+        <v>0.06311841228144079</v>
       </c>
       <c r="M41">
-        <v>590.8489229693427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.06287275703926527</v>
+      </c>
+      <c r="N41">
+        <v>590.8489229693428</v>
+      </c>
+      <c r="O41">
+        <v>0.0002456552421755126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>145.8635927937256</v>
       </c>
       <c r="B42">
-        <v>123056.3340883283</v>
+        <v>123056.3340883299</v>
       </c>
       <c r="C42">
-        <v>106.2339594580873</v>
+        <v>106.2339594580887</v>
       </c>
       <c r="D42">
-        <v>15737.49201632096</v>
+        <v>15737.49201632095</v>
       </c>
       <c r="E42">
-        <v>10009.60400050405</v>
+        <v>10009.60400050404</v>
       </c>
       <c r="F42">
-        <v>8859.071172640877</v>
+        <v>8859.071172640864</v>
       </c>
       <c r="G42">
-        <v>7.88102752346105</v>
+        <v>7.88102752346109</v>
       </c>
       <c r="H42">
-        <v>24.1705647134304</v>
+        <v>24.17056471343049</v>
       </c>
       <c r="I42">
-        <v>3.452257094368108E-09</v>
+        <v>3.452257094368115E-09</v>
       </c>
       <c r="J42">
-        <v>2.692933753471197E-09</v>
+        <v>2.692933753471203E-09</v>
       </c>
       <c r="K42">
-        <v>0.0002483854690416899</v>
+        <v>0.0002483854690416895</v>
       </c>
       <c r="L42">
-        <v>0.06256115248060749</v>
+        <v>0.06256115248060745</v>
       </c>
       <c r="M42">
-        <v>583.7755980033456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.06229564759779858</v>
+      </c>
+      <c r="N42">
+        <v>583.7755980033452</v>
+      </c>
+      <c r="O42">
+        <v>0.0002655048828088744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>147.5984706597052</v>
       </c>
       <c r="B43">
-        <v>136296.6959297575</v>
+        <v>136296.6959297578</v>
       </c>
       <c r="C43">
-        <v>116.6994110936223</v>
+        <v>116.6994110936225</v>
       </c>
       <c r="D43">
         <v>15655.49732002127</v>
@@ -2245,10 +2503,10 @@
         <v>9953.572598209055</v>
       </c>
       <c r="F43">
-        <v>8794.348999185318</v>
+        <v>8794.348999185317</v>
       </c>
       <c r="G43">
-        <v>7.777018766613272</v>
+        <v>7.777018766613291</v>
       </c>
       <c r="H43">
         <v>24.11940705382717</v>
@@ -2266,18 +2524,24 @@
         <v>0.06195581253185026</v>
       </c>
       <c r="M43">
-        <v>576.7157662084426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.0616693245170612</v>
+      </c>
+      <c r="N43">
+        <v>576.7157662084425</v>
+      </c>
+      <c r="O43">
+        <v>0.000286488014789052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>149.3333485256847</v>
       </c>
       <c r="B44">
-        <v>150584.7576537985</v>
+        <v>150584.7576538008</v>
       </c>
       <c r="C44">
-        <v>127.9157840422863</v>
+        <v>127.9157840422884</v>
       </c>
       <c r="D44">
         <v>15573.3847458787</v>
@@ -2289,92 +2553,104 @@
         <v>8729.15999672677</v>
       </c>
       <c r="G44">
-        <v>7.681927009941934</v>
+        <v>7.681927009941918</v>
       </c>
       <c r="H44">
-        <v>24.10722649046236</v>
+        <v>24.10722649046234</v>
       </c>
       <c r="I44">
-        <v>3.661515734608792E-09</v>
+        <v>3.661515734608794E-09</v>
       </c>
       <c r="J44">
-        <v>2.941548441205537E-09</v>
+        <v>2.941548441205535E-09</v>
       </c>
       <c r="K44">
         <v>0.0002332722837849005</v>
       </c>
       <c r="L44">
-        <v>0.06130463119291865</v>
+        <v>0.06130463119291867</v>
       </c>
       <c r="M44">
-        <v>569.6667920735707</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.06099600680747625</v>
+      </c>
+      <c r="N44">
+        <v>569.6667920735706</v>
+      </c>
+      <c r="O44">
+        <v>0.0003086243854424162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>151.0682263916642</v>
       </c>
       <c r="B45">
-        <v>165971.649945486</v>
+        <v>165971.6499454878</v>
       </c>
       <c r="C45">
-        <v>139.9177141857306</v>
+        <v>139.9177141857321</v>
       </c>
       <c r="D45">
         <v>15491.08267857197</v>
       </c>
       <c r="E45">
-        <v>9838.920568743959</v>
+        <v>9838.920568743961</v>
       </c>
       <c r="F45">
         <v>8663.425594461285</v>
       </c>
       <c r="G45">
-        <v>7.594328751173477</v>
+        <v>7.594328751173531</v>
       </c>
       <c r="H45">
-        <v>24.13162349080169</v>
+        <v>24.13162349080176</v>
       </c>
       <c r="I45">
-        <v>3.774643703455791E-09</v>
+        <v>3.7746437034558E-09</v>
       </c>
       <c r="J45">
-        <v>3.071294394740807E-09</v>
+        <v>3.071294394740811E-09</v>
       </c>
       <c r="K45">
-        <v>0.0002262896907063135</v>
+        <v>0.0002262896907063133</v>
       </c>
       <c r="L45">
-        <v>0.06061102252660707</v>
+        <v>0.06061102252660706</v>
       </c>
       <c r="M45">
-        <v>562.6257883886077</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.06027909095719582</v>
+      </c>
+      <c r="N45">
+        <v>562.6257883886071</v>
+      </c>
+      <c r="O45">
+        <v>0.0003319315694112383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>152.8031042576437</v>
+        <v>152.8031042576438</v>
       </c>
       <c r="B46">
-        <v>182509.1458413615</v>
+        <v>182509.1458413631</v>
       </c>
       <c r="C46">
-        <v>152.7408063708353</v>
+        <v>152.7408063708367</v>
       </c>
       <c r="D46">
         <v>15408.52137864364</v>
       </c>
       <c r="E46">
-        <v>9780.121334330956</v>
+        <v>9780.121334330954</v>
       </c>
       <c r="F46">
         <v>8597.071547149984</v>
       </c>
       <c r="G46">
-        <v>7.51299596126496</v>
+        <v>7.51299596126495</v>
       </c>
       <c r="H46">
-        <v>24.19054184694918</v>
+        <v>24.19054184694916</v>
       </c>
       <c r="I46">
         <v>3.893969031583165E-09</v>
@@ -2389,30 +2665,36 @@
         <v>0.05987956130656624</v>
       </c>
       <c r="M46">
+        <v>0.05952313618091853</v>
+      </c>
+      <c r="N46">
         <v>555.5897090023955</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="O46">
+        <v>0.0003564251256477094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>154.5379821236232</v>
+        <v>154.5379821236233</v>
       </c>
       <c r="B47">
-        <v>200249.6106677303</v>
+        <v>200249.6106677323</v>
       </c>
       <c r="C47">
-        <v>166.4217025951775</v>
+        <v>166.4217025951793</v>
       </c>
       <c r="D47">
         <v>15325.63269794226</v>
       </c>
       <c r="E47">
-        <v>9720.227231204923</v>
+        <v>9720.227231204914</v>
       </c>
       <c r="F47">
-        <v>8530.027344588787</v>
+        <v>8530.02734458878</v>
       </c>
       <c r="G47">
-        <v>7.436872167062346</v>
+        <v>7.436872167062329</v>
       </c>
       <c r="H47">
         <v>24.28223627504854</v>
@@ -2421,19 +2703,25 @@
         <v>4.019934335352073E-09</v>
       </c>
       <c r="J47">
-        <v>3.341425012427671E-09</v>
+        <v>3.341425012427675E-09</v>
       </c>
       <c r="K47">
-        <v>0.0002133040867066329</v>
+        <v>0.0002133040867066328</v>
       </c>
       <c r="L47">
-        <v>0.05911587017626943</v>
+        <v>0.05911587017626942</v>
       </c>
       <c r="M47">
-        <v>548.5554265904793</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.05873375138680743</v>
+      </c>
+      <c r="N47">
+        <v>548.5554265904794</v>
+      </c>
+      <c r="O47">
+        <v>0.0003821187894619818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>156.2728599896028</v>
       </c>
@@ -2441,89 +2729,101 @@
         <v>219245.9541915935</v>
       </c>
       <c r="C48">
-        <v>180.9981595629651</v>
+        <v>180.998159562965</v>
       </c>
       <c r="D48">
         <v>15242.34980829461</v>
       </c>
       <c r="E48">
-        <v>9659.157599152368</v>
+        <v>9659.157599152371</v>
       </c>
       <c r="F48">
         <v>8462.225667621839</v>
       </c>
       <c r="G48">
-        <v>7.365051084819426</v>
+        <v>7.365051084819409</v>
       </c>
       <c r="H48">
         <v>24.4052439837334</v>
       </c>
       <c r="I48">
-        <v>4.153021858283692E-09</v>
+        <v>4.153021858283699E-09</v>
       </c>
       <c r="J48">
-        <v>3.481730913743675E-09</v>
+        <v>3.481730913743674E-09</v>
       </c>
       <c r="K48">
-        <v>0.0002072446474633641</v>
+        <v>0.000207244647463364</v>
       </c>
       <c r="L48">
-        <v>0.05832639788531947</v>
+        <v>0.05832639788531944</v>
       </c>
       <c r="M48">
-        <v>541.5197969862137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.05791737319130726</v>
+      </c>
+      <c r="N48">
+        <v>541.5197969862135</v>
+      </c>
+      <c r="O48">
+        <v>0.0004090246940121737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>158.0077378555823</v>
       </c>
       <c r="B49">
-        <v>239551.5852221597</v>
+        <v>239551.5852221577</v>
       </c>
       <c r="C49">
-        <v>196.5091366037951</v>
+        <v>196.5091366037933</v>
       </c>
       <c r="D49">
         <v>15158.60694170949</v>
       </c>
       <c r="E49">
-        <v>9596.834231691086</v>
+        <v>9596.834231691089</v>
       </c>
       <c r="F49">
         <v>8393.601883970205</v>
       </c>
       <c r="G49">
-        <v>7.29675761913826</v>
+        <v>7.296757619138261</v>
       </c>
       <c r="H49">
-        <v>24.55835992419129</v>
+        <v>24.55835992419131</v>
       </c>
       <c r="I49">
-        <v>4.29375774607503E-09</v>
+        <v>4.293757746075037E-09</v>
       </c>
       <c r="J49">
-        <v>3.625491563745063E-09</v>
+        <v>3.625491563745065E-09</v>
       </c>
       <c r="K49">
-        <v>0.0002014415776621989</v>
+        <v>0.0002014415776621988</v>
       </c>
       <c r="L49">
         <v>0.05751809866071157</v>
       </c>
       <c r="M49">
-        <v>534.4797116817444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.05708094504518452</v>
+      </c>
+      <c r="N49">
+        <v>534.479711681744</v>
+      </c>
+      <c r="O49">
+        <v>0.0004371536155270407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>159.7426157215618</v>
       </c>
       <c r="B50">
-        <v>261220.3689050406</v>
+        <v>261220.3689050423</v>
       </c>
       <c r="C50">
-        <v>212.9948951257196</v>
+        <v>212.994895125721</v>
       </c>
       <c r="D50">
         <v>15074.33914053616</v>
@@ -2535,77 +2835,89 @@
         <v>8324.093577523216</v>
       </c>
       <c r="G50">
-        <v>7.231331036889491</v>
+        <v>7.231331036889442</v>
       </c>
       <c r="H50">
         <v>24.74061545021877</v>
       </c>
       <c r="I50">
-        <v>4.442716853725709E-09</v>
+        <v>4.442716853725715E-09</v>
       </c>
       <c r="J50">
-        <v>3.772690413691301E-09</v>
+        <v>3.772690413691306E-09</v>
       </c>
       <c r="K50">
-        <v>0.0001958737632724543</v>
+        <v>0.0001958737632724542</v>
       </c>
       <c r="L50">
-        <v>0.05669804558657014</v>
+        <v>0.05669804558657009</v>
       </c>
       <c r="M50">
-        <v>527.4321400664448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.05623153034990501</v>
+      </c>
+      <c r="N50">
+        <v>527.432140066445</v>
+      </c>
+      <c r="O50">
+        <v>0.0004665152366650833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>161.4774935875413</v>
+        <v>161.4774935875414</v>
       </c>
       <c r="B51">
-        <v>284306.5869607581</v>
+        <v>284306.5869607588</v>
       </c>
       <c r="C51">
-        <v>230.4971109824443</v>
+        <v>230.4971109824448</v>
       </c>
       <c r="D51">
-        <v>14989.48201610597</v>
+        <v>14989.48201610596</v>
       </c>
       <c r="E51">
-        <v>9468.122709363181</v>
+        <v>9468.122709363188</v>
       </c>
       <c r="F51">
-        <v>8253.64010508172</v>
+        <v>8253.640105081722</v>
       </c>
       <c r="G51">
-        <v>7.168210126669706</v>
+        <v>7.168210126669708</v>
       </c>
       <c r="H51">
-        <v>24.95126013743996</v>
+        <v>24.95126013744003</v>
       </c>
       <c r="I51">
-        <v>4.600528162357579E-09</v>
+        <v>4.600528162357591E-09</v>
       </c>
       <c r="J51">
-        <v>3.92332293283244E-09</v>
+        <v>3.923322932832443E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001905223708919709</v>
+        <v>0.0001905223708919708</v>
       </c>
       <c r="L51">
-        <v>0.05587302796506665</v>
+        <v>0.05587302796506664</v>
       </c>
       <c r="M51">
-        <v>520.3741628737143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.05537590954237599</v>
+      </c>
+      <c r="N51">
+        <v>520.3741628737139</v>
+      </c>
+      <c r="O51">
+        <v>0.0004971184226906456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>163.2123714535209</v>
       </c>
       <c r="B52">
-        <v>308864.9011345557</v>
+        <v>308864.9011345579</v>
       </c>
       <c r="C52">
-        <v>249.0590013761521</v>
+        <v>249.059001376154</v>
       </c>
       <c r="D52">
         <v>14903.97151447521</v>
@@ -2614,13 +2926,13 @@
         <v>9401.585948011845</v>
       </c>
       <c r="F52">
-        <v>8182.18217484061</v>
+        <v>8182.182174840612</v>
       </c>
       <c r="G52">
-        <v>7.106920159647966</v>
+        <v>7.106920159647999</v>
       </c>
       <c r="H52">
-        <v>25.18974653541383</v>
+        <v>25.18974653541387</v>
       </c>
       <c r="I52">
         <v>4.767880896084613E-09</v>
@@ -2632,136 +2944,160 @@
         <v>0.0001853705967830851</v>
       </c>
       <c r="L52">
-        <v>0.05504918764021469</v>
+        <v>0.0550491876402147</v>
       </c>
       <c r="M52">
+        <v>0.05452021613467362</v>
+      </c>
+      <c r="N52">
         <v>513.3029981772605</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <v>0.0005289715055410743</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>164.9472493195004</v>
       </c>
       <c r="B53">
-        <v>334950.3201457387</v>
+        <v>334950.320145739</v>
       </c>
       <c r="C53">
-        <v>268.7254681966428</v>
+        <v>268.725468196643</v>
       </c>
       <c r="D53">
-        <v>14817.74368796343</v>
+        <v>14817.74368796342</v>
       </c>
       <c r="E53">
-        <v>9333.497312598882</v>
+        <v>9333.497312598884</v>
       </c>
       <c r="F53">
-        <v>8109.661441152365</v>
+        <v>8109.661441152367</v>
       </c>
       <c r="G53">
-        <v>7.047061475956183</v>
+        <v>7.047061475956204</v>
       </c>
       <c r="H53">
-        <v>25.45571765384305</v>
+        <v>25.45571765384312</v>
       </c>
       <c r="I53">
-        <v>4.945531444498285E-09</v>
+        <v>4.945531444498294E-09</v>
       </c>
       <c r="J53">
-        <v>4.234939375392052E-09</v>
+        <v>4.234939375392057E-09</v>
       </c>
       <c r="K53">
-        <v>0.0001804034445745662</v>
+        <v>0.0001804034445745659</v>
       </c>
       <c r="L53">
-        <v>0.05423174035377821</v>
+        <v>0.05423174035377817</v>
       </c>
       <c r="M53">
-        <v>506.216021132508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.05366965778245363</v>
+      </c>
+      <c r="N53">
+        <v>506.2160211325078</v>
+      </c>
+      <c r="O53">
+        <v>0.0005620825713245446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>166.6821271854799</v>
+        <v>166.68212718548</v>
       </c>
       <c r="B54">
-        <v>362618.170452016</v>
+        <v>362618.1704520152</v>
       </c>
       <c r="C54">
-        <v>289.5432600192458</v>
+        <v>289.5432600192451</v>
       </c>
       <c r="D54">
-        <v>14730.7344712433</v>
+        <v>14730.73447124329</v>
       </c>
       <c r="E54">
-        <v>9263.783614581747</v>
+        <v>9263.783614581755</v>
       </c>
       <c r="F54">
         <v>8036.020110321119</v>
       </c>
       <c r="G54">
-        <v>6.988299531025015</v>
+        <v>6.988299531025016</v>
       </c>
       <c r="H54">
-        <v>25.74899701397948</v>
+        <v>25.74899701397952</v>
       </c>
       <c r="I54">
-        <v>5.134311214499348E-09</v>
+        <v>5.134311214499371E-09</v>
       </c>
       <c r="J54">
-        <v>4.395986600819523E-09</v>
+        <v>4.395986600819529E-09</v>
       </c>
       <c r="K54">
-        <v>0.0001756075268180866</v>
+        <v>0.0001756075268180863</v>
       </c>
       <c r="L54">
-        <v>0.05342480886933274</v>
+        <v>0.05342480886933269</v>
       </c>
       <c r="M54">
-        <v>499.1107785094782</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.05282834912204609</v>
+      </c>
+      <c r="N54">
+        <v>499.1107785094774</v>
+      </c>
+      <c r="O54">
+        <v>0.000596459747286598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>168.4170050514595</v>
       </c>
       <c r="B55">
-        <v>391924.0711773063</v>
+        <v>391924.0711773065</v>
       </c>
       <c r="C55">
-        <v>311.561155353668</v>
+        <v>311.5611553536681</v>
       </c>
       <c r="D55">
-        <v>14642.87946078706</v>
+        <v>14642.87946078705</v>
       </c>
       <c r="E55">
-        <v>9192.371296057478</v>
+        <v>9192.371296057479</v>
       </c>
       <c r="F55">
-        <v>7961.200552338003</v>
+        <v>7961.200552338002</v>
       </c>
       <c r="G55">
-        <v>6.930356247693589</v>
+        <v>6.930356247693584</v>
       </c>
       <c r="H55">
-        <v>26.06958112842129</v>
+        <v>26.06958112842132</v>
       </c>
       <c r="I55">
-        <v>5.335135556988764E-09</v>
+        <v>5.335135556988778E-09</v>
       </c>
       <c r="J55">
-        <v>4.560596443740598E-09</v>
+        <v>4.560596443740608E-09</v>
       </c>
       <c r="K55">
-        <v>0.0001709708866830935</v>
+        <v>0.0001709708866830933</v>
       </c>
       <c r="L55">
-        <v>0.05263137172409484</v>
+        <v>0.05263137172409481</v>
       </c>
       <c r="M55">
-        <v>491.984998917808</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.05199926023931198</v>
+      </c>
+      <c r="N55">
+        <v>491.9849989178076</v>
+      </c>
+      <c r="O55">
+        <v>0.0006321114847828305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>170.151882917439</v>
       </c>
@@ -2769,48 +3105,54 @@
         <v>422923.9135909295</v>
       </c>
       <c r="C56">
-        <v>334.8301701607811</v>
+        <v>334.830170160781</v>
       </c>
       <c r="D56">
         <v>14554.11369650921</v>
       </c>
       <c r="E56">
-        <v>9119.185971640454</v>
+        <v>9119.185971640452</v>
       </c>
       <c r="F56">
-        <v>7885.144913580935</v>
+        <v>7885.14491358093</v>
       </c>
       <c r="G56">
-        <v>6.873002531935657</v>
+        <v>6.873002531935659</v>
       </c>
       <c r="H56">
-        <v>26.41763430689273</v>
+        <v>26.41763430689272</v>
       </c>
       <c r="I56">
-        <v>5.549013940147381E-09</v>
+        <v>5.549013940147401E-09</v>
       </c>
       <c r="J56">
-        <v>4.728843797124268E-09</v>
+        <v>4.728843797124272E-09</v>
       </c>
       <c r="K56">
-        <v>0.0001664828369231846</v>
+        <v>0.0001664828369231844</v>
       </c>
       <c r="L56">
-        <v>0.0518533119764458</v>
+        <v>0.05185331197644578</v>
       </c>
       <c r="M56">
-        <v>484.8365994870904</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.05118426514117545</v>
+      </c>
+      <c r="N56">
+        <v>484.8365994870896</v>
+      </c>
+      <c r="O56">
+        <v>0.0006690468352703237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>171.8867607834185</v>
       </c>
       <c r="B57">
-        <v>455673.8455708005</v>
+        <v>455673.8455707999</v>
       </c>
       <c r="C57">
-        <v>359.4037931408064</v>
+        <v>359.4037931408059</v>
       </c>
       <c r="D57">
         <v>14464.37144446527</v>
@@ -2822,48 +3164,54 @@
         <v>7807.794725568023</v>
       </c>
       <c r="G57">
-        <v>6.816051822191429</v>
+        <v>6.816051822191437</v>
       </c>
       <c r="H57">
-        <v>26.79348572263537</v>
+        <v>26.79348572263536</v>
       </c>
       <c r="I57">
-        <v>5.777061572721881E-09</v>
+        <v>5.777061572721887E-09</v>
       </c>
       <c r="J57">
-        <v>4.90082271289142E-09</v>
+        <v>4.900822712891423E-09</v>
       </c>
       <c r="K57">
-        <v>0.0001621338139009723</v>
+        <v>0.0001621338139009722</v>
       </c>
       <c r="L57">
-        <v>0.05109153849994087</v>
+        <v>0.05109153849994084</v>
       </c>
       <c r="M57">
-        <v>477.663689638652</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.05038426278317668</v>
+      </c>
+      <c r="N57">
+        <v>477.6636896386517</v>
+      </c>
+      <c r="O57">
+        <v>0.0007072757167641588</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>173.621638649398</v>
+        <v>173.6216386493981</v>
       </c>
       <c r="B58">
-        <v>490230.2615341194</v>
+        <v>490230.2615341198</v>
       </c>
       <c r="C58">
-        <v>385.3382528540682</v>
+        <v>385.3382528540686</v>
       </c>
       <c r="D58">
         <v>14373.58597946962</v>
       </c>
       <c r="E58">
-        <v>8967.191795166456</v>
+        <v>8967.191795166442</v>
       </c>
       <c r="F58">
-        <v>7729.0905048702</v>
+        <v>7729.090504870188</v>
       </c>
       <c r="G58">
-        <v>6.759354554262138</v>
+        <v>6.759354554262147</v>
       </c>
       <c r="H58">
         <v>27.19762871438557</v>
@@ -2878,185 +3226,215 @@
         <v>0.0001579152449587474</v>
       </c>
       <c r="L58">
-        <v>0.05034614902910533</v>
+        <v>0.05034614902910532</v>
       </c>
       <c r="M58">
-        <v>470.4645724690968</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.04959933986051897</v>
+      </c>
+      <c r="N58">
+        <v>470.4645724690967</v>
+      </c>
+      <c r="O58">
+        <v>0.0007468091685863451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>175.3565165153775</v>
+        <v>175.3565165153776</v>
       </c>
       <c r="B59">
-        <v>526649.798374769</v>
+        <v>526649.7983747723</v>
       </c>
       <c r="C59">
-        <v>412.6928213734897</v>
+        <v>412.6928213734925</v>
       </c>
       <c r="D59">
         <v>14281.68936647979</v>
       </c>
       <c r="E59">
-        <v>8888.225726065572</v>
+        <v>8888.225726065573</v>
       </c>
       <c r="F59">
         <v>7648.971339254931</v>
       </c>
       <c r="G59">
-        <v>6.702793435289084</v>
+        <v>6.702793435289106</v>
       </c>
       <c r="H59">
-        <v>27.63072234352997</v>
+        <v>27.63072234353</v>
       </c>
       <c r="I59">
-        <v>6.280735995678557E-09</v>
+        <v>6.280735995678566E-09</v>
       </c>
       <c r="J59">
-        <v>5.256452994848252E-09</v>
+        <v>5.256452994848255E-09</v>
       </c>
       <c r="K59">
-        <v>0.0001538194278027194</v>
+        <v>0.0001538194278027193</v>
       </c>
       <c r="L59">
-        <v>0.0496166074242214</v>
+        <v>0.04961660742422138</v>
       </c>
       <c r="M59">
-        <v>463.2377441612024</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.04882894783166423</v>
+      </c>
+      <c r="N59">
+        <v>463.2377441612021</v>
+      </c>
+      <c r="O59">
+        <v>0.000787659592557152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>177.0913943813571</v>
       </c>
       <c r="B60">
-        <v>564989.3380073842</v>
+        <v>564989.3380073913</v>
       </c>
       <c r="C60">
-        <v>441.5301598983584</v>
+        <v>441.5301598983649</v>
       </c>
       <c r="D60">
         <v>14188.61223955495</v>
       </c>
       <c r="E60">
-        <v>8807.171175958685</v>
+        <v>8807.171175958678</v>
       </c>
       <c r="F60">
-        <v>7567.374455047732</v>
+        <v>7567.374455047729</v>
       </c>
       <c r="G60">
-        <v>6.646279431333244</v>
+        <v>6.646279431333272</v>
       </c>
       <c r="H60">
-        <v>28.09359527625731</v>
+        <v>28.09359527625725</v>
       </c>
       <c r="I60">
-        <v>6.559251992675483E-09</v>
+        <v>6.559251992675462E-09</v>
       </c>
       <c r="J60">
-        <v>5.440396846662639E-09</v>
+        <v>5.440396846662638E-09</v>
       </c>
       <c r="K60">
-        <v>0.0001498394208559091</v>
+        <v>0.0001498394208559093</v>
       </c>
       <c r="L60">
-        <v>0.04890191451801724</v>
+        <v>0.04890191451801726</v>
       </c>
       <c r="M60">
-        <v>455.9818917433114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.04807207353897544</v>
+      </c>
+      <c r="N60">
+        <v>455.9818917433117</v>
+      </c>
+      <c r="O60">
+        <v>0.000829840979041821</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>178.8262722473366</v>
       </c>
       <c r="B61">
-        <v>605306.0171824662</v>
+        <v>605306.0171824655</v>
       </c>
       <c r="C61">
-        <v>471.9167125940552</v>
+        <v>471.9167125940546</v>
       </c>
       <c r="D61">
-        <v>14094.28357712887</v>
+        <v>14094.28357712886</v>
       </c>
       <c r="E61">
-        <v>8723.942179282829</v>
+        <v>8723.942179282807</v>
       </c>
       <c r="F61">
-        <v>7484.234760557737</v>
+        <v>7484.234760557712</v>
       </c>
       <c r="G61">
-        <v>6.589748383405218</v>
+        <v>6.5897483834052</v>
       </c>
       <c r="H61">
-        <v>28.58725211814715</v>
+        <v>28.58725211814714</v>
       </c>
       <c r="I61">
-        <v>6.857753642004859E-09</v>
+        <v>6.857753642004888E-09</v>
       </c>
       <c r="J61">
-        <v>5.628659128616682E-09</v>
+        <v>5.628659128616694E-09</v>
       </c>
       <c r="K61">
-        <v>0.0001459689437499322</v>
+        <v>0.000145968943749932</v>
       </c>
       <c r="L61">
-        <v>0.04820075968922699</v>
+        <v>0.04820075968922694</v>
       </c>
       <c r="M61">
-        <v>448.695889433117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.04732739057275629</v>
+      </c>
+      <c r="N61">
+        <v>448.6958894331163</v>
+      </c>
+      <c r="O61">
+        <v>0.0008733691164706462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>180.5611501133161</v>
+        <v>180.5611501133162</v>
       </c>
       <c r="B62">
-        <v>647657.2453045717</v>
+        <v>647657.2453045695</v>
       </c>
       <c r="C62">
-        <v>503.9231558778116</v>
+        <v>503.9231558778094</v>
       </c>
       <c r="D62">
         <v>13998.6304722332</v>
       </c>
       <c r="E62">
-        <v>8638.448776519608</v>
+        <v>8638.448776519606</v>
       </c>
       <c r="F62">
-        <v>7399.484360215021</v>
+        <v>7399.484360215024</v>
       </c>
       <c r="G62">
-        <v>6.533158176423814</v>
+        <v>6.533158176423781</v>
       </c>
       <c r="H62">
-        <v>29.11288239602258</v>
+        <v>29.11288239602245</v>
       </c>
       <c r="I62">
-        <v>7.178129832395718E-09</v>
+        <v>7.178129832395685E-09</v>
       </c>
       <c r="J62">
-        <v>5.821444001040876E-09</v>
+        <v>5.821444001040875E-09</v>
       </c>
       <c r="K62">
-        <v>0.0001422022872852563</v>
+        <v>0.0001422022872852564</v>
       </c>
       <c r="L62">
-        <v>0.04751164714096479</v>
+        <v>0.0475116471409648</v>
       </c>
       <c r="M62">
-        <v>441.3787937243479</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.04659338535786309</v>
+      </c>
+      <c r="N62">
+        <v>441.3787937243486</v>
+      </c>
+      <c r="O62">
+        <v>0.0009182617831017127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>182.2960279792956</v>
+        <v>182.2960279792957</v>
       </c>
       <c r="B63">
-        <v>692100.7310544372</v>
+        <v>692100.73105444</v>
       </c>
       <c r="C63">
-        <v>537.6249114620708</v>
+        <v>537.6249114620733</v>
       </c>
       <c r="D63">
         <v>13901.57789615746</v>
@@ -3068,379 +3446,433 @@
         <v>7313.052033805</v>
       </c>
       <c r="G63">
-        <v>6.476486394458772</v>
+        <v>6.476486394458762</v>
       </c>
       <c r="H63">
-        <v>29.67187246206328</v>
+        <v>29.67187246206331</v>
       </c>
       <c r="I63">
-        <v>7.522492887726659E-09</v>
+        <v>7.522492887726667E-09</v>
       </c>
       <c r="J63">
-        <v>6.018980621350963E-09</v>
+        <v>6.018980621350966E-09</v>
       </c>
       <c r="K63">
-        <v>0.0001385342323058327</v>
+        <v>0.0001385342323058326</v>
       </c>
       <c r="L63">
-        <v>0.04683299590627137</v>
+        <v>0.04683299590627133</v>
       </c>
       <c r="M63">
-        <v>434.0298373041799</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.04586845698637265</v>
+      </c>
+      <c r="N63">
+        <v>434.0298373041798</v>
+      </c>
+      <c r="O63">
+        <v>0.000964538919898685</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>184.0309058452752</v>
       </c>
       <c r="B64">
-        <v>738694.5186839969</v>
+        <v>738694.5186839879</v>
       </c>
       <c r="C64">
-        <v>573.1027327126288</v>
+        <v>573.10273271262</v>
       </c>
       <c r="D64">
         <v>13803.04845382236</v>
       </c>
       <c r="E64">
-        <v>8460.285005345006</v>
+        <v>8460.285005345011</v>
       </c>
       <c r="F64">
-        <v>7224.862674857028</v>
+        <v>7224.862674857032</v>
       </c>
       <c r="G64">
-        <v>6.419728403764843</v>
+        <v>6.41972840376483</v>
       </c>
       <c r="H64">
-        <v>30.26582069214246</v>
+        <v>30.26582069214248</v>
       </c>
       <c r="I64">
-        <v>7.893210658340538E-09</v>
+        <v>7.893210658340545E-09</v>
       </c>
       <c r="J64">
-        <v>6.221524262187691E-09</v>
+        <v>6.221524262187695E-09</v>
       </c>
       <c r="K64">
-        <v>0.0001349599770170777</v>
+        <v>0.0001349599770170776</v>
       </c>
       <c r="L64">
-        <v>0.04616321576314852</v>
+        <v>0.0461632157631485</v>
       </c>
       <c r="M64">
-        <v>426.6484218239148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.04515099297969073</v>
+      </c>
+      <c r="N64">
+        <v>426.6484218239147</v>
+      </c>
+      <c r="O64">
+        <v>0.00101222278345777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>185.7657837112547</v>
       </c>
       <c r="B65">
-        <v>787497.0349178007</v>
+        <v>787497.0349178065</v>
       </c>
       <c r="C65">
-        <v>610.4433752969135</v>
+        <v>610.4433752969188</v>
       </c>
       <c r="D65">
         <v>13702.96212885817</v>
       </c>
       <c r="E65">
-        <v>8367.408658241091</v>
+        <v>8367.408658241087</v>
       </c>
       <c r="F65">
-        <v>7134.836681845425</v>
+        <v>7134.836681845423</v>
       </c>
       <c r="G65">
-        <v>6.362895812532321</v>
+        <v>6.362895812532305</v>
       </c>
       <c r="H65">
-        <v>30.89655646924523</v>
+        <v>30.8965564692452</v>
       </c>
       <c r="I65">
-        <v>8.292944148003368E-09</v>
+        <v>8.292944148003371E-09</v>
       </c>
       <c r="J65">
-        <v>6.429357524367239E-09</v>
+        <v>6.429357524367245E-09</v>
       </c>
       <c r="K65">
-        <v>0.0001314750723337493</v>
+        <v>0.0001314750723337492</v>
       </c>
       <c r="L65">
-        <v>0.04550076283033272</v>
+        <v>0.04550076283033268</v>
       </c>
       <c r="M65">
-        <v>419.2341094847322</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.04443942475238651</v>
+      </c>
+      <c r="N65">
+        <v>419.2341094847321</v>
+      </c>
+      <c r="O65">
+        <v>0.001061338077946171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>187.5006615772342</v>
+        <v>187.5006615772343</v>
       </c>
       <c r="B66">
-        <v>838567.1474514451</v>
+        <v>838567.1474514477</v>
       </c>
       <c r="C66">
-        <v>649.74036470612</v>
+        <v>649.7403647061221</v>
       </c>
       <c r="D66">
         <v>13601.23601599501</v>
       </c>
       <c r="E66">
-        <v>8271.85437677894</v>
+        <v>8271.854376778934</v>
       </c>
       <c r="F66">
-        <v>7042.889295392522</v>
+        <v>7042.889295392521</v>
       </c>
       <c r="G66">
-        <v>6.306015263034076</v>
+        <v>6.306015263034086</v>
       </c>
       <c r="H66">
-        <v>31.56616359045708</v>
+        <v>31.56616359045704</v>
       </c>
       <c r="I66">
-        <v>8.724691817179375E-09</v>
+        <v>8.72469181717937E-09</v>
       </c>
       <c r="J66">
-        <v>6.642791667398573E-09</v>
+        <v>6.642791667398584E-09</v>
       </c>
       <c r="K66">
-        <v>0.0001280753648821576</v>
+        <v>0.0001280753648821575</v>
       </c>
       <c r="L66">
         <v>0.04484417908515347</v>
       </c>
       <c r="M66">
+        <v>0.04373226702013598</v>
+      </c>
+      <c r="N66">
         <v>411.7866133431656</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="O66">
+        <v>0.001111912065017482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>189.2355394432138</v>
       </c>
       <c r="B67">
-        <v>891964.2360798827</v>
+        <v>891964.2360798843</v>
       </c>
       <c r="C67">
-        <v>691.0948750455142</v>
+        <v>691.0948750455153</v>
       </c>
       <c r="D67">
         <v>13497.78403785917</v>
       </c>
       <c r="E67">
-        <v>8173.501415801617</v>
+        <v>8173.501415801606</v>
       </c>
       <c r="F67">
-        <v>6948.929874131481</v>
+        <v>6948.92987413147</v>
       </c>
       <c r="G67">
-        <v>6.249127517923299</v>
+        <v>6.249127517923278</v>
       </c>
       <c r="H67">
-        <v>32.2770089211855</v>
+        <v>32.27700892118551</v>
       </c>
       <c r="I67">
-        <v>9.191841981507411E-09</v>
+        <v>9.191841981507416E-09</v>
       </c>
       <c r="J67">
-        <v>6.862168082644399E-09</v>
+        <v>6.862168082644403E-09</v>
       </c>
       <c r="K67">
-        <v>0.000124756947303931</v>
+        <v>0.0001247569473039309</v>
       </c>
       <c r="L67">
-        <v>0.04419211982385896</v>
+        <v>0.04419211982385895</v>
       </c>
       <c r="M67">
+        <v>0.043028145173201</v>
+      </c>
+      <c r="N67">
         <v>404.3057861870698</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="O67">
+        <v>0.001163974650657949</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>190.9704173091933</v>
       </c>
       <c r="B68">
-        <v>947748.2775101139</v>
+        <v>947748.277510114</v>
       </c>
       <c r="C68">
-        <v>734.6167355074494</v>
+        <v>734.6167355074492</v>
       </c>
       <c r="D68">
-        <v>13392.51664259023</v>
+        <v>13392.51664259022</v>
       </c>
       <c r="E68">
-        <v>8072.22027028085</v>
+        <v>8072.220270280849</v>
       </c>
       <c r="F68">
-        <v>6852.861101308358</v>
+        <v>6852.861101308356</v>
       </c>
       <c r="G68">
-        <v>6.192286807934817</v>
+        <v>6.192286807934825</v>
       </c>
       <c r="H68">
-        <v>33.03177735476034</v>
+        <v>33.03177735476039</v>
       </c>
       <c r="I68">
-        <v>9.698235081621245E-09</v>
+        <v>9.698235081621292E-09</v>
       </c>
       <c r="J68">
-        <v>7.087859937378247E-09</v>
+        <v>7.087859937378255E-09</v>
       </c>
       <c r="K68">
-        <v>0.000121516115519593</v>
+        <v>0.0001215161155195928</v>
       </c>
       <c r="L68">
-        <v>0.0435433725052586</v>
+        <v>0.04354337250525857</v>
       </c>
       <c r="M68">
-        <v>396.7916077819816</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.04232581405735587</v>
+      </c>
+      <c r="N68">
+        <v>396.7916077819808</v>
+      </c>
+      <c r="O68">
+        <v>0.001217558447902707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>192.7052951751728</v>
       </c>
       <c r="B69">
-        <v>1005979.944898293</v>
+        <v>1005979.944898278</v>
       </c>
       <c r="C69">
-        <v>780.4255831566485</v>
+        <v>780.4255831566328</v>
       </c>
       <c r="D69">
         <v>13285.34047779777</v>
       </c>
       <c r="E69">
-        <v>7967.871629217526</v>
+        <v>7967.87162921754</v>
       </c>
       <c r="F69">
-        <v>6754.578113615245</v>
+        <v>6754.57811361525</v>
       </c>
       <c r="G69">
-        <v>6.135560413168347</v>
+        <v>6.135560413168371</v>
       </c>
       <c r="H69">
-        <v>33.8335144348595</v>
+        <v>33.83351443485966</v>
       </c>
       <c r="I69">
-        <v>1.024823806241045E-08</v>
+        <v>1.024823806241049E-08</v>
       </c>
       <c r="J69">
-        <v>7.320274022264536E-09</v>
+        <v>7.32027402226454E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001183493326118636</v>
+        <v>0.0001183493326118635</v>
       </c>
       <c r="L69">
         <v>0.04289686970571684</v>
       </c>
       <c r="M69">
-        <v>389.2441702401657</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.04162417089135888</v>
+      </c>
+      <c r="N69">
+        <v>389.2441702401653</v>
+      </c>
+      <c r="O69">
+        <v>0.001272698814357958</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>194.4401730411523</v>
       </c>
       <c r="B70">
-        <v>1066720.723085973</v>
+        <v>1066720.723085979</v>
       </c>
       <c r="C70">
-        <v>828.6521830289743</v>
+        <v>828.6521830289802</v>
       </c>
       <c r="D70">
         <v>13176.1580351996</v>
       </c>
       <c r="E70">
-        <v>7860.305238922587</v>
+        <v>7860.30523892258</v>
       </c>
       <c r="F70">
         <v>6653.967543211395</v>
       </c>
       <c r="G70">
-        <v>6.079028454583145</v>
+        <v>6.079028454583152</v>
       </c>
       <c r="H70">
-        <v>34.6856783832044</v>
+        <v>34.68567838320421</v>
       </c>
       <c r="I70">
-        <v>1.084683370146992E-08</v>
+        <v>1.084683370146985E-08</v>
       </c>
       <c r="J70">
-        <v>7.55985284047124E-09</v>
+        <v>7.559852840471232E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001152531989824301</v>
+        <v>0.0001152531989824303</v>
       </c>
       <c r="L70">
-        <v>0.04225169820217461</v>
+        <v>0.04225169820217465</v>
       </c>
       <c r="M70">
-        <v>381.6636612209542</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.04092226433868371</v>
+      </c>
+      <c r="N70">
+        <v>381.6636612209548</v>
+      </c>
+      <c r="O70">
+        <v>0.001329433863490945</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>196.1750509071318</v>
+        <v>196.1750509071319</v>
       </c>
       <c r="B71">
-        <v>1130033.040367668</v>
+        <v>1130033.040367671</v>
       </c>
       <c r="C71">
-        <v>879.4399389828225</v>
+        <v>879.4399389828251</v>
       </c>
       <c r="D71">
-        <v>13064.8672587417</v>
+        <v>13064.86725874169</v>
       </c>
       <c r="E71">
-        <v>7749.358669127279</v>
+        <v>7749.358669127277</v>
       </c>
       <c r="F71">
-        <v>6550.906463520022</v>
+        <v>6550.906463520015</v>
       </c>
       <c r="G71">
-        <v>6.022783876323571</v>
+        <v>6.022783876323595</v>
       </c>
       <c r="H71">
-        <v>35.59220377370927</v>
+        <v>35.59220377370951</v>
       </c>
       <c r="I71">
-        <v>1.149972851598649E-08</v>
+        <v>1.149972851598661E-08</v>
       </c>
       <c r="J71">
-        <v>7.807076984132429E-09</v>
+        <v>7.807076984132444E-09</v>
       </c>
       <c r="K71">
-        <v>0.000112224428422622</v>
+        <v>0.0001122244284226217</v>
       </c>
       <c r="L71">
-        <v>0.04160710555945199</v>
+        <v>0.04160710555945192</v>
       </c>
       <c r="M71">
-        <v>374.0503446324242</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.04021930111072494</v>
+      </c>
+      <c r="N71">
+        <v>374.0503446324229</v>
+      </c>
+      <c r="O71">
+        <v>0.001387804448726986</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>197.9099287731114</v>
       </c>
       <c r="B72">
-        <v>1195980.417365805</v>
+        <v>1195980.417365819</v>
       </c>
       <c r="C72">
-        <v>932.9466210782551</v>
+        <v>932.9466210782706</v>
       </c>
       <c r="D72">
         <v>12951.36110698213</v>
       </c>
       <c r="E72">
-        <v>7634.855976529585</v>
+        <v>7634.855976529571</v>
       </c>
       <c r="F72">
-        <v>6445.261229358493</v>
+        <v>6445.261229358486</v>
       </c>
       <c r="G72">
-        <v>5.966932603157293</v>
+        <v>5.966932603157286</v>
       </c>
       <c r="H72">
-        <v>36.55757974518498</v>
+        <v>36.55757974518497</v>
       </c>
       <c r="I72">
         <v>1.221348392149939E-08</v>
@@ -3452,323 +3884,371 @@
         <v>0.000109259829717853</v>
       </c>
       <c r="L72">
-        <v>0.04096250505645928</v>
+        <v>0.0409625050564593</v>
       </c>
       <c r="M72">
-        <v>366.4045384723322</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.03951465093690912</v>
+      </c>
+      <c r="N72">
+        <v>366.4045384723323</v>
+      </c>
+      <c r="O72">
+        <v>0.001447854119550181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>199.6448066390909</v>
       </c>
       <c r="B73">
-        <v>1264627.633169924</v>
+        <v>1264627.63316992</v>
       </c>
       <c r="C73">
-        <v>989.346337203846</v>
+        <v>989.3463372038407</v>
       </c>
       <c r="D73">
-        <v>12835.52705788336</v>
+        <v>12835.52705788335</v>
       </c>
       <c r="E73">
-        <v>7516.606262585948</v>
+        <v>7516.60626258596</v>
       </c>
       <c r="F73">
-        <v>6336.886202546653</v>
+        <v>6336.886202546664</v>
       </c>
       <c r="G73">
-        <v>5.911593860672357</v>
+        <v>5.911593860672355</v>
       </c>
       <c r="H73">
-        <v>37.58694650043926</v>
+        <v>37.58694650043927</v>
       </c>
       <c r="I73">
-        <v>1.299567670841896E-08</v>
+        <v>1.299567670841899E-08</v>
       </c>
       <c r="J73">
-        <v>8.326590789196551E-09</v>
+        <v>8.326590789196559E-09</v>
       </c>
       <c r="K73">
-        <v>0.0001063562933770263</v>
+        <v>0.0001063562933770262</v>
       </c>
       <c r="L73">
-        <v>0.04031747934751813</v>
+        <v>0.0403174793475181</v>
       </c>
       <c r="M73">
-        <v>358.7265894228013</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.03880785029844128</v>
+      </c>
+      <c r="N73">
+        <v>358.7265894228009</v>
+      </c>
+      <c r="O73">
+        <v>0.001509629049076828</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>201.3796845050704</v>
+        <v>201.3796845050705</v>
       </c>
       <c r="B74">
-        <v>1336040.908239992</v>
+        <v>1336040.908239998</v>
       </c>
       <c r="C74">
-        <v>1048.831777741457</v>
+        <v>1048.831777741463</v>
       </c>
       <c r="D74">
-        <v>12717.24654070435</v>
+        <v>12717.24654070434</v>
       </c>
       <c r="E74">
-        <v>7394.402126169918</v>
+        <v>7394.402126169891</v>
       </c>
       <c r="F74">
-        <v>6225.622355762585</v>
+        <v>6225.62235576256</v>
       </c>
       <c r="G74">
-        <v>5.856900649104701</v>
+        <v>5.856900649104707</v>
       </c>
       <c r="H74">
-        <v>38.68621497383702</v>
+        <v>38.68621497383714</v>
       </c>
       <c r="I74">
-        <v>1.385509677533109E-08</v>
+        <v>1.385509677533114E-08</v>
       </c>
       <c r="J74">
-        <v>8.600058697802166E-09</v>
+        <v>8.600058697802179E-09</v>
       </c>
       <c r="K74">
-        <v>0.0001035107830395534</v>
+        <v>0.0001035107830395532</v>
       </c>
       <c r="L74">
-        <v>0.03967178291292743</v>
+        <v>0.03967178291292739</v>
       </c>
       <c r="M74">
-        <v>351.0168438001915</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.038098604979924</v>
+      </c>
+      <c r="N74">
+        <v>351.0168438001912</v>
+      </c>
+      <c r="O74">
+        <v>0.001573177933003385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>203.1145623710499</v>
+        <v>203.11456237105</v>
       </c>
       <c r="B75">
-        <v>1410288.102579283</v>
+        <v>1410288.102579308</v>
       </c>
       <c r="C75">
-        <v>1111.616761490244</v>
+        <v>1111.616761490272</v>
       </c>
       <c r="D75">
         <v>12596.39427515742</v>
       </c>
       <c r="E75">
-        <v>7268.01801792955</v>
+        <v>7268.018017929528</v>
       </c>
       <c r="F75">
-        <v>6111.295750693016</v>
+        <v>6111.29575069301</v>
       </c>
       <c r="G75">
-        <v>5.803000364869464</v>
+        <v>5.803000364869449</v>
       </c>
       <c r="H75">
-        <v>39.86221606568503</v>
+        <v>39.86221606568493</v>
       </c>
       <c r="I75">
-        <v>1.480199260124449E-08</v>
+        <v>1.480199260124442E-08</v>
       </c>
       <c r="J75">
-        <v>8.883536288128021E-09</v>
+        <v>8.883536288128012E-09</v>
       </c>
       <c r="K75">
-        <v>0.0001007203310617881</v>
+        <v>0.0001007203310617883</v>
       </c>
       <c r="L75">
-        <v>0.03902534309657633</v>
+        <v>0.03902534309657639</v>
       </c>
       <c r="M75">
-        <v>343.2756144611623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.0373867912360955</v>
+      </c>
+      <c r="N75">
+        <v>343.2756144611629</v>
+      </c>
+      <c r="O75">
+        <v>0.001638551860480889</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>204.8494402370295</v>
       </c>
       <c r="B76">
-        <v>1487438.926204836</v>
+        <v>1487438.926204823</v>
       </c>
       <c r="C76">
-        <v>1177.939107670153</v>
+        <v>1177.939107670136</v>
       </c>
       <c r="D76">
-        <v>12472.83749203768</v>
+        <v>12472.83749203767</v>
       </c>
       <c r="E76">
-        <v>7137.208512893839</v>
+        <v>7137.208512893848</v>
       </c>
       <c r="F76">
-        <v>5993.715892362381</v>
+        <v>5993.715892362382</v>
       </c>
       <c r="G76">
-        <v>5.750055567267331</v>
+        <v>5.750055567267339</v>
       </c>
       <c r="H76">
-        <v>41.12288788854045</v>
+        <v>41.12288788854057</v>
       </c>
       <c r="I76">
-        <v>1.584837842598512E-08</v>
+        <v>1.584837842598521E-08</v>
       </c>
       <c r="J76">
-        <v>9.17774504720524E-09</v>
+        <v>9.177745047205256E-09</v>
       </c>
       <c r="K76">
-        <v>9.798203771801653E-05</v>
+        <v>9.798203771801632E-05</v>
       </c>
       <c r="L76">
-        <v>0.03837825934719506</v>
+        <v>0.038378259347195</v>
       </c>
       <c r="M76">
-        <v>335.503143278797</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.03667245518878752</v>
+      </c>
+      <c r="N76">
+        <v>335.5031432787963</v>
+      </c>
+      <c r="O76">
+        <v>0.001705804158407479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>206.584318103009</v>
+        <v>206.5843181030091</v>
       </c>
       <c r="B77">
-        <v>1567565.156790014</v>
+        <v>1567565.15679002</v>
       </c>
       <c r="C77">
-        <v>1248.063850803018</v>
+        <v>1248.063850803024</v>
       </c>
       <c r="D77">
-        <v>12346.4350016523</v>
+        <v>12346.43500165229</v>
       </c>
       <c r="E77">
-        <v>7001.706532553294</v>
+        <v>7001.706532553289</v>
       </c>
       <c r="F77">
-        <v>5872.673971161697</v>
+        <v>5872.673971161691</v>
       </c>
       <c r="G77">
-        <v>5.698244891713568</v>
+        <v>5.698244891713559</v>
       </c>
       <c r="H77">
-        <v>42.47751226284444</v>
+        <v>42.47751226284474</v>
       </c>
       <c r="I77">
-        <v>1.700842194019999E-08</v>
+        <v>1.700842194020016E-08</v>
       </c>
       <c r="J77">
-        <v>9.483469139351058E-09</v>
+        <v>9.483469139351083E-09</v>
       </c>
       <c r="K77">
-        <v>9.529307336436098E-05</v>
+        <v>9.529307336436078E-05</v>
       </c>
       <c r="L77">
-        <v>0.03773080016472963</v>
+        <v>0.03773080016472959</v>
       </c>
       <c r="M77">
-        <v>327.6995588281105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.0359558099527754</v>
+      </c>
+      <c r="N77">
+        <v>327.6995588281096</v>
+      </c>
+      <c r="O77">
+        <v>0.001774990211954188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>208.3191959689885</v>
+        <v>208.3191959689886</v>
       </c>
       <c r="B78">
-        <v>1650740.856255628</v>
+        <v>1650740.856255649</v>
       </c>
       <c r="C78">
-        <v>1322.286800000585</v>
+        <v>1322.28680000061</v>
       </c>
       <c r="D78">
         <v>12217.03606587346</v>
       </c>
       <c r="E78">
-        <v>6861.221569135094</v>
+        <v>6861.221569135052</v>
       </c>
       <c r="F78">
-        <v>5747.941019234533</v>
+        <v>5747.941019234499</v>
       </c>
       <c r="G78">
-        <v>5.647764115593668</v>
+        <v>5.647764115593681</v>
       </c>
       <c r="H78">
-        <v>43.93701555416862</v>
+        <v>43.93701555416869</v>
       </c>
       <c r="I78">
-        <v>1.829893806007743E-08</v>
+        <v>1.82989380600775E-08</v>
       </c>
       <c r="J78">
-        <v>9.801562457693613E-09</v>
+        <v>9.801562457693626E-09</v>
       </c>
       <c r="K78">
-        <v>9.265068280146526E-05</v>
+        <v>9.265068280146514E-05</v>
       </c>
       <c r="L78">
-        <v>0.03708339719687773</v>
+        <v>0.03708339719687768</v>
       </c>
       <c r="M78">
-        <v>319.8648289534381</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.03523722993090824</v>
+      </c>
+      <c r="N78">
+        <v>319.8648289534376</v>
+      </c>
+      <c r="O78">
+        <v>0.001846167265969435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>210.0540738349681</v>
       </c>
       <c r="B79">
-        <v>1737042.573691509</v>
+        <v>1737042.573691505</v>
       </c>
       <c r="C79">
-        <v>1400.938417976356</v>
+        <v>1400.938417976349</v>
       </c>
       <c r="D79">
-        <v>12084.47901550429</v>
+        <v>12084.47901550428</v>
       </c>
       <c r="E79">
-        <v>6715.437995243584</v>
+        <v>6715.437995243574</v>
       </c>
       <c r="F79">
-        <v>5619.266030637476</v>
+        <v>5619.266030637462</v>
       </c>
       <c r="G79">
-        <v>5.598827389106342</v>
+        <v>5.598827389106355</v>
       </c>
       <c r="H79">
-        <v>45.51435433682431</v>
+        <v>45.51435433682456</v>
       </c>
       <c r="I79">
-        <v>1.974002397595342E-08</v>
+        <v>1.974002397595362E-08</v>
       </c>
       <c r="J79">
-        <v>1.01329571316417E-08</v>
+        <v>1.013295713164173E-08</v>
       </c>
       <c r="K79">
-        <v>9.005219092657944E-05</v>
+        <v>9.005219092657919E-05</v>
       </c>
       <c r="L79">
-        <v>0.0364366359262987</v>
+        <v>0.03643663592629864</v>
       </c>
       <c r="M79">
-        <v>311.9987079200506</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.0345172417118866</v>
+      </c>
+      <c r="N79">
+        <v>311.9987079200496</v>
+      </c>
+      <c r="O79">
+        <v>0.001919394214412032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>211.7889517009476</v>
       </c>
       <c r="B80">
-        <v>1826549.515852265</v>
+        <v>1826549.51585229</v>
       </c>
       <c r="C80">
-        <v>1484.387952999597</v>
+        <v>1484.387952999631</v>
       </c>
       <c r="D80">
-        <v>11948.58953540156</v>
+        <v>11948.58953540155</v>
       </c>
       <c r="E80">
-        <v>6564.013583525121</v>
+        <v>6564.013583525084</v>
       </c>
       <c r="F80">
-        <v>5486.374127522747</v>
+        <v>5486.374127522722</v>
       </c>
       <c r="G80">
-        <v>5.551668652089354</v>
+        <v>5.551668652089352</v>
       </c>
       <c r="H80">
-        <v>47.22501402258164</v>
+        <v>47.22501402258163</v>
       </c>
       <c r="I80">
         <v>2.135588449653333E-08</v>
@@ -3777,874 +4257,1006 @@
         <v>1.047867389183017E-08</v>
       </c>
       <c r="K80">
-        <v>8.749500857850412E-05</v>
+        <v>8.749500857850408E-05</v>
       </c>
       <c r="L80">
-        <v>0.03579124242900912</v>
+        <v>0.03579124242900911</v>
       </c>
       <c r="M80">
+        <v>0.03379651104063634</v>
+      </c>
+      <c r="N80">
         <v>304.1006778573761</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="O80">
+        <v>0.001994731388372776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>213.5238295669271</v>
+        <v>213.5238295669272</v>
       </c>
       <c r="B81">
-        <v>1919343.658044877</v>
+        <v>1919343.658044887</v>
       </c>
       <c r="C81">
-        <v>1573.047692937551</v>
+        <v>1573.047692937562</v>
       </c>
       <c r="D81">
         <v>11809.17851322835</v>
       </c>
       <c r="E81">
-        <v>6406.578414627748</v>
+        <v>6406.578414627734</v>
       </c>
       <c r="F81">
-        <v>5348.964899705211</v>
+        <v>5348.964899705205</v>
       </c>
       <c r="G81">
-        <v>5.506543270231955</v>
+        <v>5.506543270231957</v>
       </c>
       <c r="H81">
-        <v>49.08765963302782</v>
+        <v>49.08765963302771</v>
       </c>
       <c r="I81">
-        <v>2.317591691187428E-08</v>
+        <v>2.317591691187423E-08</v>
       </c>
       <c r="J81">
         <v>1.083983482985482E-08</v>
       </c>
       <c r="K81">
-        <v>8.497663723729557E-05</v>
+        <v>8.497663723729559E-05</v>
       </c>
       <c r="L81">
-        <v>0.0351480657592696</v>
+        <v>0.03514806575926961</v>
       </c>
       <c r="M81">
-        <v>296.1698841432865</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.03307582540137322</v>
+      </c>
+      <c r="N81">
+        <v>296.1698841432867</v>
+      </c>
+      <c r="O81">
+        <v>0.002072240357896388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>215.2587074329066</v>
       </c>
       <c r="B82">
-        <v>2015509.756927207</v>
+        <v>2015509.7569272</v>
       </c>
       <c r="C82">
-        <v>1667.377118126358</v>
+        <v>1667.377118126347</v>
       </c>
       <c r="D82">
-        <v>11666.03931045902</v>
+        <v>11666.03931045901</v>
       </c>
       <c r="E82">
-        <v>6242.734415558677</v>
+        <v>6242.734415558692</v>
       </c>
       <c r="F82">
-        <v>5206.711103068838</v>
+        <v>5206.711103068848</v>
       </c>
       <c r="G82">
-        <v>5.463729942325473</v>
+        <v>5.463729942325482</v>
       </c>
       <c r="H82">
-        <v>51.12499409958031</v>
+        <v>51.12499409958045</v>
       </c>
       <c r="I82">
-        <v>2.523615458935119E-08</v>
+        <v>2.523615458935139E-08</v>
       </c>
       <c r="J82">
-        <v>1.12176792802453E-08</v>
+        <v>1.121767928024533E-08</v>
       </c>
       <c r="K82">
-        <v>8.249467092720243E-05</v>
+        <v>8.24946709272022E-05</v>
       </c>
       <c r="L82">
-        <v>0.0345080556121616</v>
+        <v>0.03450805561216154</v>
       </c>
       <c r="M82">
-        <v>288.2050641955782</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.03235607184296001</v>
+      </c>
+      <c r="N82">
+        <v>288.2050641955774</v>
+      </c>
+      <c r="O82">
+        <v>0.002151983769201525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>216.9935852988861</v>
+        <v>216.9935852988862</v>
       </c>
       <c r="B83">
-        <v>2115135.212056191</v>
+        <v>2115135.212056218</v>
       </c>
       <c r="C83">
-        <v>1767.886604938702</v>
+        <v>1767.886604938742</v>
       </c>
       <c r="D83">
         <v>11518.94426117429</v>
       </c>
       <c r="E83">
-        <v>6072.055835766027</v>
+        <v>6072.055835765977</v>
       </c>
       <c r="F83">
-        <v>5059.257969699431</v>
+        <v>5059.257969699394</v>
       </c>
       <c r="G83">
-        <v>5.42353295755207</v>
+        <v>5.423532957552052</v>
       </c>
       <c r="H83">
-        <v>53.36490372377065</v>
+        <v>53.36490372377067</v>
       </c>
       <c r="I83">
-        <v>2.758121385507826E-08</v>
+        <v>2.758121385507832E-08</v>
       </c>
       <c r="J83">
-        <v>1.161358382249607E-08</v>
+        <v>1.161358382249608E-08</v>
       </c>
       <c r="K83">
-        <v>8.004679326031266E-05</v>
+        <v>8.004679326031257E-05</v>
       </c>
       <c r="L83">
-        <v>0.03387223501269888</v>
+        <v>0.03387223501269887</v>
       </c>
       <c r="M83">
-        <v>280.204468729352</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.03163820976493513</v>
+      </c>
+      <c r="N83">
+        <v>280.2044687293518</v>
+      </c>
+      <c r="O83">
+        <v>0.002234025247763741</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>218.7284631648657</v>
       </c>
       <c r="B84">
-        <v>2218309.704814593</v>
+        <v>2218309.704814597</v>
       </c>
       <c r="C84">
-        <v>1875.140178446313</v>
+        <v>1875.140178446319</v>
       </c>
       <c r="D84">
         <v>11367.64012727584</v>
       </c>
       <c r="E84">
-        <v>5894.09101200855</v>
+        <v>5894.091012008546</v>
       </c>
       <c r="F84">
         <v>4906.223446012968</v>
       </c>
       <c r="G84">
-        <v>5.386284923346739</v>
+        <v>5.386284923346744</v>
       </c>
       <c r="H84">
-        <v>55.84200747847936</v>
+        <v>55.84200747847937</v>
       </c>
       <c r="I84">
-        <v>3.026695863622877E-08</v>
+        <v>3.026695863622876E-08</v>
       </c>
       <c r="J84">
-        <v>1.202908779194544E-08</v>
+        <v>1.202908779194545E-08</v>
       </c>
       <c r="K84">
-        <v>7.763076701133345E-05</v>
+        <v>7.763076701133346E-05</v>
       </c>
       <c r="L84">
-        <v>0.03324166785319776</v>
+        <v>0.03324166785319778</v>
       </c>
       <c r="M84">
-        <v>272.1657737585967</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.03092323844298625</v>
+      </c>
+      <c r="N84">
+        <v>272.1657737585966</v>
+      </c>
+      <c r="O84">
+        <v>0.002318429410211526</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>220.4633410308452</v>
+        <v>220.4633410308453</v>
       </c>
       <c r="B85">
-        <v>2325124.522348959</v>
+        <v>2325124.522348977</v>
       </c>
       <c r="C85">
-        <v>1989.756653889636</v>
+        <v>1989.756653889662</v>
       </c>
       <c r="D85">
         <v>11211.84212551998</v>
       </c>
       <c r="E85">
-        <v>5708.365746673432</v>
+        <v>5708.365746673418</v>
       </c>
       <c r="F85">
-        <v>4747.199701845092</v>
+        <v>4747.199701845084</v>
       </c>
       <c r="G85">
-        <v>5.352350148014175</v>
+        <v>5.352350148014185</v>
       </c>
       <c r="H85">
-        <v>58.5997847317084</v>
+        <v>58.59978473170838</v>
       </c>
       <c r="I85">
         <v>3.336420758874557E-08</v>
       </c>
       <c r="J85">
-        <v>1.24659262637599E-08</v>
+        <v>1.246592626375991E-08</v>
       </c>
       <c r="K85">
-        <v>7.524441287209674E-05</v>
+        <v>7.524441287209673E-05</v>
       </c>
       <c r="L85">
-        <v>0.0326174211134681</v>
+        <v>0.03261742111346811</v>
       </c>
       <c r="M85">
+        <v>0.03021215906763576</v>
+      </c>
+      <c r="N85">
         <v>264.0859802515808</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="O85">
+        <v>0.002405262045832354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>222.1982188968247</v>
+        <v>222.1982188968248</v>
       </c>
       <c r="B86">
-        <v>2435671.452910317</v>
+        <v>2435671.4529103</v>
       </c>
       <c r="C86">
-        <v>2112.408405968981</v>
+        <v>2112.408405968949</v>
       </c>
       <c r="D86">
-        <v>11051.2259725105</v>
+        <v>11051.22597251047</v>
       </c>
       <c r="E86">
-        <v>5514.388436113963</v>
+        <v>5514.388436113979</v>
       </c>
       <c r="F86">
-        <v>4581.756176674738</v>
+        <v>4581.75617667474</v>
       </c>
       <c r="G86">
-        <v>5.322128960607278</v>
+        <v>5.322128960607323</v>
       </c>
       <c r="H86">
-        <v>61.6935487270083</v>
+        <v>61.69354872700933</v>
       </c>
       <c r="I86">
-        <v>3.696398657449657E-08</v>
+        <v>3.696398657449745E-08</v>
       </c>
       <c r="J86">
-        <v>1.292607333701005E-08</v>
+        <v>1.292607333701011E-08</v>
       </c>
       <c r="K86">
-        <v>7.28855730073577E-05</v>
+        <v>7.288557300735732E-05</v>
       </c>
       <c r="L86">
-        <v>0.03200052150500841</v>
+        <v>0.03200052150500832</v>
       </c>
       <c r="M86">
-        <v>255.9612960940479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.02950593095064609</v>
+      </c>
+      <c r="N86">
+        <v>255.9612960940462</v>
+      </c>
+      <c r="O86">
+        <v>0.002494590554362229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>223.9330967628042</v>
+        <v>223.9330967628043</v>
       </c>
       <c r="B87">
-        <v>2550041.123163852</v>
+        <v>2550041.123163818</v>
       </c>
       <c r="C87">
-        <v>2243.817096155877</v>
+        <v>2243.817096155808</v>
       </c>
       <c r="D87">
-        <v>10885.41713704324</v>
+        <v>10885.4171370432</v>
       </c>
       <c r="E87">
-        <v>5311.656581354252</v>
+        <v>5311.656581354306</v>
       </c>
       <c r="F87">
-        <v>4409.444128345836</v>
+        <v>4409.444128345869</v>
       </c>
       <c r="G87">
-        <v>5.296063403242108</v>
+        <v>5.296063403242101</v>
       </c>
       <c r="H87">
-        <v>65.19468580505159</v>
+        <v>65.19468580505256</v>
       </c>
       <c r="I87">
-        <v>4.11851251156024E-08</v>
+        <v>4.118512511560352E-08</v>
       </c>
       <c r="J87">
-        <v>1.341179986385046E-08</v>
+        <v>1.341179986385055E-08</v>
       </c>
       <c r="K87">
-        <v>7.055205358011572E-05</v>
+        <v>7.055205358011525E-05</v>
       </c>
       <c r="L87">
-        <v>0.03139190601987307</v>
+        <v>0.03139190601987294</v>
       </c>
       <c r="M87">
-        <v>247.7869914774388</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.02880542125515412</v>
+      </c>
+      <c r="N87">
+        <v>247.7869914774369</v>
+      </c>
+      <c r="O87">
+        <v>0.002586484764718825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>225.6679746287838</v>
       </c>
       <c r="B88">
-        <v>2668320.647980037</v>
+        <v>2668320.647980045</v>
       </c>
       <c r="C88">
-        <v>2384.746212917166</v>
+        <v>2384.746212917182</v>
       </c>
       <c r="D88">
-        <v>10713.97609383052</v>
+        <v>10713.97609383051</v>
       </c>
       <c r="E88">
-        <v>5099.663262667527</v>
+        <v>5099.663262667517</v>
       </c>
       <c r="F88">
-        <v>4229.801932619827</v>
+        <v>4229.801932619818</v>
       </c>
       <c r="G88">
-        <v>5.274644969238462</v>
+        <v>5.274644969238468</v>
       </c>
       <c r="H88">
-        <v>69.19683917879179</v>
+        <v>69.19683917879249</v>
       </c>
       <c r="I88">
-        <v>4.618550160113039E-08</v>
+        <v>4.618550160113104E-08</v>
       </c>
       <c r="J88">
-        <v>1.392575182255935E-08</v>
+        <v>1.392575182255938E-08</v>
       </c>
       <c r="K88">
-        <v>6.824153830908906E-05</v>
+        <v>6.82415383090889E-05</v>
       </c>
       <c r="L88">
-        <v>0.03079236535311487</v>
+        <v>0.03079236535311484</v>
       </c>
       <c r="M88">
-        <v>239.5572135126423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.02811134703739577</v>
+      </c>
+      <c r="N88">
+        <v>239.5572135126414</v>
+      </c>
+      <c r="O88">
+        <v>0.002681018315719074</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>227.4028524947633</v>
+        <v>227.4028524947634</v>
       </c>
       <c r="B89">
-        <v>2790590.494695527</v>
+        <v>2790590.494695593</v>
       </c>
       <c r="C89">
-        <v>2535.991610322123</v>
+        <v>2535.991610322256</v>
       </c>
       <c r="D89">
-        <v>10536.37775255224</v>
+        <v>10536.37775255227</v>
       </c>
       <c r="E89">
-        <v>4877.90027220618</v>
+        <v>4877.900272206078</v>
       </c>
       <c r="F89">
-        <v>4042.358985888098</v>
+        <v>4042.358985888034</v>
       </c>
       <c r="G89">
-        <v>5.258425434493328</v>
+        <v>5.258425434493309</v>
       </c>
       <c r="H89">
-        <v>73.82516978718623</v>
+        <v>73.82516978718485</v>
       </c>
       <c r="I89">
-        <v>5.217913814221975E-08</v>
+        <v>5.21791381422183E-08</v>
       </c>
       <c r="J89">
-        <v>1.447105880457368E-08</v>
+        <v>1.447105880457362E-08</v>
       </c>
       <c r="K89">
-        <v>6.595146197725745E-05</v>
+        <v>6.595146197725779E-05</v>
       </c>
       <c r="L89">
-        <v>0.03020247827637882</v>
+        <v>0.03020247827637891</v>
       </c>
       <c r="M89">
-        <v>231.2647381185365</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.02742420741173481</v>
+      </c>
+      <c r="N89">
+        <v>231.2647381185382</v>
+      </c>
+      <c r="O89">
+        <v>0.002778270864644098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>229.1377303607428</v>
+        <v>229.1377303607429</v>
       </c>
       <c r="B90">
-        <v>2916920.547203624</v>
+        <v>2916920.547203631</v>
       </c>
       <c r="C90">
-        <v>2698.373839233556</v>
+        <v>2698.37383923357</v>
       </c>
       <c r="D90">
-        <v>10351.98224106452</v>
+        <v>10351.98224106451</v>
       </c>
       <c r="E90">
-        <v>4645.851601303745</v>
+        <v>4645.851601303725</v>
       </c>
       <c r="F90">
-        <v>3846.633702691711</v>
+        <v>3846.633702691693</v>
       </c>
       <c r="G90">
-        <v>5.248032422409679</v>
+        <v>5.248032422409684</v>
       </c>
       <c r="H90">
-        <v>79.25065256832852</v>
+        <v>79.25065256832863</v>
       </c>
       <c r="I90">
-        <v>5.946299472450051E-08</v>
+        <v>5.94629947245007E-08</v>
       </c>
       <c r="J90">
-        <v>1.505148743051436E-08</v>
+        <v>1.505148743051438E-08</v>
       </c>
       <c r="K90">
-        <v>6.36788279421693E-05</v>
+        <v>6.367882794216926E-05</v>
       </c>
       <c r="L90">
-        <v>0.02962253355550204</v>
+        <v>0.02962253355550202</v>
       </c>
       <c r="M90">
-        <v>222.9006261781015</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.0267442020359979</v>
+      </c>
+      <c r="N90">
+        <v>222.9006261781012</v>
+      </c>
+      <c r="O90">
+        <v>0.002878331519504113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>230.8726082267223</v>
+        <v>230.8726082267224</v>
       </c>
       <c r="B91">
-        <v>3047365.505777583</v>
+        <v>3047365.505777537</v>
       </c>
       <c r="C91">
-        <v>2872.740382179331</v>
+        <v>2872.740382179218</v>
       </c>
       <c r="D91">
-        <v>10159.99256660835</v>
+        <v>10159.9925666083</v>
       </c>
       <c r="E91">
-        <v>4402.966757454658</v>
+        <v>4402.966757454717</v>
       </c>
       <c r="F91">
-        <v>3642.117577507486</v>
+        <v>3642.117577507514</v>
       </c>
       <c r="G91">
-        <v>5.244192303935219</v>
+        <v>5.244192303935257</v>
       </c>
       <c r="H91">
-        <v>85.71293633966249</v>
+        <v>85.71293633966501</v>
       </c>
       <c r="I91">
-        <v>6.846048293665226E-08</v>
+        <v>6.846048293665566E-08</v>
       </c>
       <c r="J91">
-        <v>1.567166353900172E-08</v>
+        <v>1.567166353900187E-08</v>
       </c>
       <c r="K91">
-        <v>6.141994569899289E-05</v>
+        <v>6.141994569899226E-05</v>
       </c>
       <c r="L91">
-        <v>0.02905243350861101</v>
+        <v>0.02905243350861084</v>
       </c>
       <c r="M91">
-        <v>214.4537347236785</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.02607112941074362</v>
+      </c>
+      <c r="N91">
+        <v>214.4537347236756</v>
+      </c>
+      <c r="O91">
+        <v>0.002981304097867221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>232.6074860927019</v>
       </c>
       <c r="B92">
-        <v>3181959.976032337</v>
+        <v>3181959.976032301</v>
       </c>
       <c r="C92">
-        <v>3059.992114168751</v>
+        <v>3059.992114168652</v>
       </c>
       <c r="D92">
-        <v>9959.391799092455</v>
+        <v>9959.39179909242</v>
       </c>
       <c r="E92">
-        <v>4148.598064433443</v>
+        <v>4148.59806443351</v>
       </c>
       <c r="F92">
-        <v>3428.232586159904</v>
+        <v>3428.232586159943</v>
       </c>
       <c r="G92">
-        <v>5.247764649019723</v>
+        <v>5.247764649019782</v>
       </c>
       <c r="H92">
-        <v>93.55843491433268</v>
+        <v>93.55843491433552</v>
       </c>
       <c r="I92">
-        <v>7.979513865265408E-08</v>
+        <v>7.979513865265754E-08</v>
       </c>
       <c r="J92">
-        <v>1.633740288695449E-08</v>
+        <v>1.63374028869546E-08</v>
       </c>
       <c r="K92">
-        <v>5.9170050525879E-05</v>
+        <v>5.917005052587863E-05</v>
       </c>
       <c r="L92">
-        <v>0.0284915689631742</v>
+        <v>0.02849156896317412</v>
       </c>
       <c r="M92">
-        <v>205.9100085683656</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.02540425380014888</v>
+      </c>
+      <c r="N92">
+        <v>205.9100085683634</v>
+      </c>
+      <c r="O92">
+        <v>0.003087315163025239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>234.3423639586814</v>
+        <v>234.3423639586815</v>
       </c>
       <c r="B93">
-        <v>3320713.843376901</v>
+        <v>3320713.843376831</v>
       </c>
       <c r="C93">
-        <v>3261.156365491208</v>
+        <v>3261.156365490996</v>
       </c>
       <c r="D93">
-        <v>9748.847097861411</v>
+        <v>9748.847097861317</v>
       </c>
       <c r="E93">
-        <v>3881.879679650212</v>
+        <v>3881.879679650337</v>
       </c>
       <c r="F93">
-        <v>3204.243305717616</v>
+        <v>3204.243305717688</v>
       </c>
       <c r="G93">
-        <v>5.259795319393407</v>
+        <v>5.259795319393489</v>
       </c>
       <c r="H93">
-        <v>103.306986480265</v>
+        <v>103.3069864802738</v>
       </c>
       <c r="I93">
-        <v>9.442170610646564E-08</v>
+        <v>9.442170610647689E-08</v>
       </c>
       <c r="J93">
-        <v>1.705621961858441E-08</v>
+        <v>1.705621961858469E-08</v>
       </c>
       <c r="K93">
-        <v>5.692274067480897E-05</v>
+        <v>5.692274067480793E-05</v>
       </c>
       <c r="L93">
-        <v>0.02793864738750463</v>
+        <v>0.02793864738750438</v>
       </c>
       <c r="M93">
-        <v>197.2514327828346</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.02474212096715264</v>
+      </c>
+      <c r="N93">
+        <v>197.2514327828292</v>
+      </c>
+      <c r="O93">
+        <v>0.003196526420351734</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>236.0772418246609</v>
       </c>
       <c r="B94">
-        <v>3463608.7110052</v>
+        <v>3463608.71100518</v>
       </c>
       <c r="C94">
-        <v>3477.539632778316</v>
+        <v>3477.53963277824</v>
       </c>
       <c r="D94">
-        <v>9526.557362357591</v>
+        <v>9526.557362357558</v>
       </c>
       <c r="E94">
-        <v>3601.516820042461</v>
+        <v>3601.516820042516</v>
       </c>
       <c r="F94">
-        <v>2969.096805885277</v>
+        <v>2969.096805885313</v>
       </c>
       <c r="G94">
-        <v>5.281600798001149</v>
+        <v>5.281600798001148</v>
       </c>
       <c r="H94">
-        <v>115.7756583123499</v>
+        <v>115.775658312353</v>
       </c>
       <c r="I94">
-        <v>1.138738764821351E-07</v>
+        <v>1.138738764821396E-07</v>
       </c>
       <c r="J94">
-        <v>1.783814022023071E-08</v>
+        <v>1.783814022023081E-08</v>
       </c>
       <c r="K94">
-        <v>5.466911350021477E-05</v>
+        <v>5.466911350021445E-05</v>
       </c>
       <c r="L94">
-        <v>0.02739144035584599</v>
+        <v>0.02739144035584591</v>
       </c>
       <c r="M94">
-        <v>188.4544356874655</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.02408228604921438</v>
+      </c>
+      <c r="N94">
+        <v>188.4544356874639</v>
+      </c>
+      <c r="O94">
+        <v>0.003309154306631526</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>237.8121196906404</v>
+        <v>237.8121196906405</v>
       </c>
       <c r="B95">
-        <v>3610596.186236573</v>
+        <v>3610596.186236558</v>
       </c>
       <c r="C95">
-        <v>3711.011429749918</v>
+        <v>3711.011429749849</v>
       </c>
       <c r="D95">
-        <v>9289.99871187459</v>
+        <v>9289.99871187451</v>
       </c>
       <c r="E95">
-        <v>3305.434073767523</v>
+        <v>3305.434073767548</v>
       </c>
       <c r="F95">
-        <v>2721.14691085588</v>
+        <v>2721.146910855889</v>
       </c>
       <c r="G95">
-        <v>5.314907846370416</v>
+        <v>5.314907846370458</v>
       </c>
       <c r="H95">
-        <v>132.3263689433239</v>
+        <v>132.3263689433341</v>
       </c>
       <c r="I95">
-        <v>1.407690279455973E-07</v>
+        <v>1.407690279456121E-07</v>
       </c>
       <c r="J95">
-        <v>1.86970756875071E-08</v>
+        <v>1.869707568750735E-08</v>
       </c>
       <c r="K95">
-        <v>5.239636374623058E-05</v>
+        <v>5.239636374622984E-05</v>
       </c>
       <c r="L95">
-        <v>0.02684638378917632</v>
+        <v>0.02684638378917614</v>
       </c>
       <c r="M95">
-        <v>179.4873295334198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.02342088148904785</v>
+      </c>
+      <c r="N95">
+        <v>179.487329533416</v>
+      </c>
+      <c r="O95">
+        <v>0.003425502300128287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>239.54699755662</v>
       </c>
       <c r="B96">
-        <v>3761598.556471529</v>
+        <v>3761598.556471584</v>
       </c>
       <c r="C96">
-        <v>3964.515759743544</v>
+        <v>3964.515759743766</v>
       </c>
       <c r="D96">
-        <v>9035.469024087208</v>
+        <v>9035.469024087302</v>
       </c>
       <c r="E96">
-        <v>2990.178510564442</v>
+        <v>2990.178510564311</v>
       </c>
       <c r="F96">
-        <v>2457.676559791634</v>
+        <v>2457.676559791547</v>
       </c>
       <c r="G96">
-        <v>5.36209902425443</v>
+        <v>5.36209902425435</v>
       </c>
       <c r="H96">
-        <v>155.4106651332661</v>
+        <v>155.4106651332486</v>
       </c>
       <c r="I96">
-        <v>1.799408517326828E-07</v>
+        <v>1.799408517326563E-07</v>
       </c>
       <c r="J96">
-        <v>1.965329793688416E-08</v>
+        <v>1.965329793688384E-08</v>
       </c>
       <c r="K96">
-        <v>5.008532712954273E-05</v>
+        <v>5.008532712954361E-05</v>
       </c>
       <c r="L96">
-        <v>0.02629788985514515</v>
+        <v>0.02629788985514536</v>
       </c>
       <c r="M96">
-        <v>170.3058848920998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.02275187201081128</v>
+      </c>
+      <c r="N96">
+        <v>170.3058848921044</v>
+      </c>
+      <c r="O96">
+        <v>0.003546017844334074</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>241.2818754225995</v>
+        <v>241.2818754225996</v>
       </c>
       <c r="B97">
-        <v>3916511.93620865</v>
+        <v>3916511.936208711</v>
       </c>
       <c r="C97">
-        <v>4243.037723725748</v>
+        <v>4243.037723726015</v>
       </c>
       <c r="D97">
-        <v>8757.193129241867</v>
+        <v>8757.193129241938</v>
       </c>
       <c r="E97">
-        <v>2649.817837967588</v>
+        <v>2649.817837967449</v>
       </c>
       <c r="F97">
-        <v>2174.00720833485</v>
+        <v>2174.007208334753</v>
       </c>
       <c r="G97">
-        <v>5.426682985625114</v>
+        <v>5.426682985625056</v>
       </c>
       <c r="H97">
-        <v>189.9316635186725</v>
+        <v>189.9316635186565</v>
       </c>
       <c r="I97">
-        <v>2.41332405424835E-07</v>
+        <v>2.413324054248082E-07</v>
       </c>
       <c r="J97">
-        <v>2.073834114684914E-08</v>
+        <v>2.07383411468489E-08</v>
       </c>
       <c r="K97">
-        <v>4.770571192694727E-05</v>
+        <v>4.770571192694792E-05</v>
       </c>
       <c r="L97">
-        <v>0.02573703875658204</v>
+        <v>0.02573703875658218</v>
       </c>
       <c r="M97">
-        <v>160.8448170977622</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.02206563615593717</v>
+      </c>
+      <c r="N97">
+        <v>160.8448170977652</v>
+      </c>
+      <c r="O97">
+        <v>0.003671402600645007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>243.0167532885791</v>
       </c>
       <c r="B98">
-        <v>4075211.447009012</v>
+        <v>4075211.447009035</v>
       </c>
       <c r="C98">
-        <v>4555.680046377663</v>
+        <v>4555.68004637781</v>
       </c>
       <c r="D98">
-        <v>8445.318194424022</v>
+        <v>8445.318194424104</v>
       </c>
       <c r="E98">
-        <v>2273.575455965493</v>
+        <v>2273.575455965437</v>
       </c>
       <c r="F98">
-        <v>1861.582191362637</v>
+        <v>1861.5821913626</v>
       </c>
       <c r="G98">
-        <v>5.514315616803631</v>
+        <v>5.514315616803531</v>
       </c>
       <c r="H98">
-        <v>247.3298509738613</v>
+        <v>247.3298509738351</v>
       </c>
       <c r="I98">
-        <v>3.488850733549043E-07</v>
+        <v>3.488850733548566E-07</v>
       </c>
       <c r="J98">
-        <v>2.200605405811428E-08</v>
+        <v>2.200605405811397E-08</v>
       </c>
       <c r="K98">
-        <v>4.520546890256466E-05</v>
+        <v>4.520546890256533E-05</v>
       </c>
       <c r="L98">
-        <v>0.0251487437087419</v>
+        <v>0.02514874370874204</v>
       </c>
       <c r="M98">
-        <v>150.9988462347019</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.02134588692374967</v>
+      </c>
+      <c r="N98">
+        <v>150.998846234705</v>
+      </c>
+      <c r="O98">
+        <v>0.003802856784992371</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>244.7516311545585</v>
+        <v>244.7516311545586</v>
       </c>
       <c r="B99">
-        <v>4237557.614300376</v>
+        <v>4237557.614300298</v>
       </c>
       <c r="C99">
-        <v>4921.206691395228</v>
+        <v>4921.206691394512</v>
       </c>
       <c r="D99">
-        <v>8080.42787821724</v>
+        <v>8080.427878216808</v>
       </c>
       <c r="E99">
-        <v>1839.475995925803</v>
+        <v>1839.475995926039</v>
       </c>
       <c r="F99">
-        <v>1502.817417643223</v>
+        <v>1502.817417643366</v>
       </c>
       <c r="G99">
-        <v>5.6354939932675</v>
+        <v>5.635493993267806</v>
       </c>
       <c r="H99">
-        <v>361.9252268317358</v>
+        <v>361.9252268320243</v>
       </c>
       <c r="I99">
-        <v>5.770935520564797E-07</v>
+        <v>5.770935520570291E-07</v>
       </c>
       <c r="J99">
-        <v>2.356303859212477E-08</v>
+        <v>2.356303859212654E-08</v>
       </c>
       <c r="K99">
-        <v>4.248171831982443E-05</v>
+        <v>4.248171831982122E-05</v>
       </c>
       <c r="L99">
-        <v>0.0245042602555682</v>
+        <v>0.02450426025556749</v>
       </c>
       <c r="M99">
-        <v>140.5706298903822</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.02056151727920041</v>
+      </c>
+      <c r="N99">
+        <v>140.5706298903674</v>
+      </c>
+      <c r="O99">
+        <v>0.003942742976367081</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>246.4865090205381</v>
       </c>
       <c r="B100">
-        <v>4403403.05153537</v>
+        <v>4403403.051535044</v>
       </c>
       <c r="C100">
-        <v>5389.641199615279</v>
+        <v>5389.64119961023</v>
       </c>
       <c r="D100">
-        <v>7611.97966013888</v>
+        <v>7611.979660135718</v>
       </c>
       <c r="E100">
-        <v>1289.463498449728</v>
+        <v>1289.463498451176</v>
       </c>
       <c r="F100">
-        <v>1050.934509096736</v>
+        <v>1050.93450909768</v>
       </c>
       <c r="G100">
-        <v>5.815692535733877</v>
+        <v>5.815692535736042</v>
       </c>
       <c r="H100">
-        <v>705.2601551080448</v>
+        <v>705.2601551140675</v>
       </c>
       <c r="I100">
-        <v>1.316175953588136E-06</v>
+        <v>1.316175953600839E-06</v>
       </c>
       <c r="J100">
-        <v>2.568915280129876E-08</v>
+        <v>2.568915280131278E-08</v>
       </c>
       <c r="K100">
-        <v>3.926628169326013E-05</v>
+        <v>3.926628169323873E-05</v>
       </c>
       <c r="L100">
-        <v>0.02373268116467448</v>
+        <v>0.02373268116466976</v>
       </c>
       <c r="M100">
-        <v>129.0632617090124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.01963549756926657</v>
+      </c>
+      <c r="N100">
+        <v>129.0632617089254</v>
+      </c>
+      <c r="O100">
+        <v>0.004097183595403194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>248.2213868865176</v>
+        <v>248.2213868865177</v>
       </c>
       <c r="B101">
-        <v>4572597.700038072</v>
+        <v>4572597.700000363</v>
       </c>
       <c r="C101">
-        <v>6522.756104912954</v>
+        <v>6522.760901990537</v>
       </c>
       <c r="D101">
-        <v>6526.041072847001</v>
+        <v>6526.036504546321</v>
       </c>
       <c r="E101">
-        <v>1.897134982929839</v>
+        <v>1.89172627437501</v>
       </c>
       <c r="F101">
-        <v>1.544266244249447</v>
+        <v>1.539863569935883</v>
       </c>
       <c r="G101">
-        <v>6.282222287050632</v>
+        <v>6.282224227367997</v>
       </c>
       <c r="H101">
-        <v>6938603.641436094</v>
+        <v>6958818.546647849</v>
       </c>
       <c r="I101">
-        <v>0.01858322542365261</v>
+        <v>0.01863739373009549</v>
       </c>
       <c r="J101">
-        <v>3.128739858826276E-08</v>
+        <v>3.128742449189235E-08</v>
       </c>
       <c r="K101">
-        <v>3.281877885225853E-05</v>
+        <v>3.28187542841418E-05</v>
       </c>
       <c r="L101">
-        <v>0.02215585121339085</v>
+        <v>0.02215584518147516</v>
       </c>
       <c r="M101">
-        <v>111.3630993486917</v>
+        <v>0.01782783269256547</v>
+      </c>
+      <c r="N101">
+        <v>111.3630513480805</v>
+      </c>
+      <c r="O101">
+        <v>0.004328012488909695</v>
       </c>
     </row>
   </sheetData>
